--- a/Equity_Fund_Direct_Performance.xlsx
+++ b/Equity_Fund_Direct_Performance.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="912">
   <si>
     <t>scheme_name</t>
   </si>
@@ -142,2605 +142,2623 @@
     <t>S&amp;P BSE Sensex Total Return Index</t>
   </si>
   <si>
-    <t>300.5600</t>
-  </si>
-  <si>
-    <t>42.1000</t>
-  </si>
-  <si>
-    <t>19.6700</t>
-  </si>
-  <si>
-    <t>128.6500</t>
-  </si>
-  <si>
-    <t>37.8000</t>
-  </si>
-  <si>
-    <t>261.2690</t>
-  </si>
-  <si>
-    <t>49.0600</t>
-  </si>
-  <si>
-    <t>31.9980</t>
-  </si>
-  <si>
-    <t>644.2604</t>
-  </si>
-  <si>
-    <t>615.7720</t>
-  </si>
-  <si>
-    <t>288.2572</t>
-  </si>
-  <si>
-    <t>57.4100</t>
-  </si>
-  <si>
-    <t>34.3100</t>
-  </si>
-  <si>
-    <t>44.8300</t>
-  </si>
-  <si>
-    <t>27.9100</t>
-  </si>
-  <si>
-    <t>39.8500</t>
-  </si>
-  <si>
-    <t>90.0100</t>
-  </si>
-  <si>
-    <t>337.1130</t>
-  </si>
-  <si>
-    <t>36.0718</t>
-  </si>
-  <si>
-    <t>36.2230</t>
-  </si>
-  <si>
-    <t>13.4591</t>
-  </si>
-  <si>
-    <t>70.3170</t>
-  </si>
-  <si>
-    <t>44.1192</t>
-  </si>
-  <si>
-    <t>233.7000</t>
-  </si>
-  <si>
-    <t>55.5369</t>
-  </si>
-  <si>
-    <t>299.2546</t>
-  </si>
-  <si>
-    <t>91.6100</t>
-  </si>
-  <si>
-    <t>13.9700</t>
-  </si>
-  <si>
-    <t>166.8298</t>
-  </si>
-  <si>
-    <t>29.60</t>
-  </si>
-  <si>
-    <t>22.24</t>
-  </si>
-  <si>
-    <t>28.73</t>
-  </si>
-  <si>
-    <t>26.52</t>
-  </si>
-  <si>
-    <t>31.43</t>
+    <t>307.1300</t>
+  </si>
+  <si>
+    <t>43.3500</t>
+  </si>
+  <si>
+    <t>20.1700</t>
+  </si>
+  <si>
+    <t>131.6000</t>
+  </si>
+  <si>
+    <t>38.7000</t>
+  </si>
+  <si>
+    <t>269.0130</t>
+  </si>
+  <si>
+    <t>50.2900</t>
+  </si>
+  <si>
+    <t>32.7304</t>
+  </si>
+  <si>
+    <t>650.9029</t>
+  </si>
+  <si>
+    <t>624.9240</t>
+  </si>
+  <si>
+    <t>295.5225</t>
+  </si>
+  <si>
+    <t>58.6500</t>
+  </si>
+  <si>
+    <t>35.2000</t>
+  </si>
+  <si>
+    <t>45.7800</t>
+  </si>
+  <si>
+    <t>28.5100</t>
+  </si>
+  <si>
+    <t>40.8200</t>
+  </si>
+  <si>
+    <t>91.4452</t>
+  </si>
+  <si>
+    <t>347.3260</t>
+  </si>
+  <si>
+    <t>37.0192</t>
+  </si>
+  <si>
+    <t>36.9210</t>
+  </si>
+  <si>
+    <t>13.7459</t>
+  </si>
+  <si>
+    <t>71.7590</t>
+  </si>
+  <si>
+    <t>44.6818</t>
+  </si>
+  <si>
+    <t>238.8500</t>
+  </si>
+  <si>
+    <t>56.5274</t>
+  </si>
+  <si>
+    <t>306.2308</t>
+  </si>
+  <si>
+    <t>93.5700</t>
+  </si>
+  <si>
+    <t>14.2900</t>
+  </si>
+  <si>
+    <t>171.5540</t>
+  </si>
+  <si>
+    <t>59.41</t>
+  </si>
+  <si>
+    <t>43.40</t>
+  </si>
+  <si>
+    <t>55.51</t>
+  </si>
+  <si>
+    <t>52.95</t>
+  </si>
+  <si>
+    <t>58.02</t>
+  </si>
+  <si>
+    <t>47.52</t>
+  </si>
+  <si>
+    <t>57.45</t>
+  </si>
+  <si>
+    <t>59.33</t>
+  </si>
+  <si>
+    <t>65.24</t>
+  </si>
+  <si>
+    <t>63.74</t>
+  </si>
+  <si>
+    <t>58.23</t>
+  </si>
+  <si>
+    <t>61.70</t>
+  </si>
+  <si>
+    <t>55.89</t>
+  </si>
+  <si>
+    <t>53.99</t>
+  </si>
+  <si>
+    <t>45.83</t>
+  </si>
+  <si>
+    <t>51.35</t>
+  </si>
+  <si>
+    <t>37.15</t>
+  </si>
+  <si>
+    <t>63.64</t>
+  </si>
+  <si>
+    <t>41.11</t>
+  </si>
+  <si>
+    <t>52.65</t>
+  </si>
+  <si>
+    <t>60.84</t>
+  </si>
+  <si>
+    <t>59.89</t>
+  </si>
+  <si>
+    <t>56.53</t>
+  </si>
+  <si>
+    <t>56.33</t>
+  </si>
+  <si>
+    <t>63.78</t>
+  </si>
+  <si>
+    <t>56.15</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>58.43</t>
+  </si>
+  <si>
+    <t>58.67</t>
+  </si>
+  <si>
+    <t>11.54</t>
+  </si>
+  <si>
+    <t>18.58</t>
+  </si>
+  <si>
+    <t>13.97</t>
+  </si>
+  <si>
+    <t>15.24</t>
+  </si>
+  <si>
+    <t>18.82</t>
+  </si>
+  <si>
+    <t>10.36</t>
+  </si>
+  <si>
+    <t>14.96</t>
+  </si>
+  <si>
+    <t>12.41</t>
+  </si>
+  <si>
+    <t>12.30</t>
+  </si>
+  <si>
+    <t>11.59</t>
+  </si>
+  <si>
+    <t>13.45</t>
+  </si>
+  <si>
+    <t>12.92</t>
+  </si>
+  <si>
+    <t>13.54</t>
+  </si>
+  <si>
+    <t>13.27</t>
+  </si>
+  <si>
+    <t>10.63</t>
+  </si>
+  <si>
+    <t>12.71</t>
+  </si>
+  <si>
+    <t>11.24</t>
+  </si>
+  <si>
+    <t>15.07</t>
+  </si>
+  <si>
+    <t>13.70</t>
+  </si>
+  <si>
+    <t>12.24</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>14.79</t>
+  </si>
+  <si>
+    <t>10.71</t>
+  </si>
+  <si>
+    <t>13.09</t>
+  </si>
+  <si>
+    <t>13.23</t>
+  </si>
+  <si>
+    <t>12.36</t>
+  </si>
+  <si>
+    <t>8.61</t>
+  </si>
+  <si>
+    <t>11.38</t>
+  </si>
+  <si>
+    <t>14.11</t>
+  </si>
+  <si>
+    <t>14.63</t>
+  </si>
+  <si>
+    <t>18.81</t>
+  </si>
+  <si>
+    <t>15.29</t>
+  </si>
+  <si>
+    <t>15.90</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>13.58</t>
+  </si>
+  <si>
+    <t>16.44</t>
+  </si>
+  <si>
+    <t>15.36</t>
+  </si>
+  <si>
+    <t>13.84</t>
+  </si>
+  <si>
+    <t>15.65</t>
+  </si>
+  <si>
+    <t>16.24</t>
+  </si>
+  <si>
+    <t>16.47</t>
+  </si>
+  <si>
+    <t>14.60</t>
+  </si>
+  <si>
+    <t>15.47</t>
+  </si>
+  <si>
+    <t>15.06</t>
+  </si>
+  <si>
+    <t>15.09</t>
+  </si>
+  <si>
+    <t>12.18</t>
+  </si>
+  <si>
+    <t>16.18</t>
+  </si>
+  <si>
+    <t>14.21</t>
+  </si>
+  <si>
+    <t>18.36</t>
+  </si>
+  <si>
+    <t>15.45</t>
+  </si>
+  <si>
+    <t>14.59</t>
+  </si>
+  <si>
+    <t>15.49</t>
+  </si>
+  <si>
+    <t>14.52</t>
+  </si>
+  <si>
+    <t>10.93</t>
+  </si>
+  <si>
+    <t>15.64</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Equity Advantage Fund</t>
+  </si>
+  <si>
+    <t>Axis Growth Opportunities Fund</t>
+  </si>
+  <si>
+    <t>BOI AXA Large &amp; Mid Cap Equity Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco Emerging Equities Fund</t>
+  </si>
+  <si>
+    <t>DSP Equity Opportunities Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Essel Large &amp; Midcap Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Equity Advantage Fund</t>
+  </si>
+  <si>
+    <t>HDFC Growth Opportunities Fund</t>
+  </si>
+  <si>
+    <t>HSBC Large and Mid Cap Equity Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>IDFC Core Equity Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Growth Opportunities Fund</t>
+  </si>
+  <si>
+    <t>Kotak Equity Opportunities Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>L&amp;T Large and Midcap Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Top 250 Nivesh Yojana</t>
+  </si>
+  <si>
+    <t>Mirae Asset Emerging Bluechip</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Large and Midcap Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Vision Fund</t>
+  </si>
+  <si>
+    <t>Principal Emerging Bluechip Fund</t>
+  </si>
+  <si>
+    <t>Quant Large and Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>SBI Large &amp; Midcap Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Large and Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Tata Large &amp; Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Union Large &amp; Midcap Fund</t>
+  </si>
+  <si>
+    <t>UTI Core Equity Fund</t>
+  </si>
+  <si>
+    <t>NIFTY Large Midcap 250 Total Return Index</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE 250 Large MidCap Total Return Index</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE 250 Large MidCap 65:35 Total Return Index</t>
+  </si>
+  <si>
+    <t>NIFTY 200 Total Return Index</t>
+  </si>
+  <si>
+    <t>595.4000</t>
+  </si>
+  <si>
+    <t>17.0600</t>
+  </si>
+  <si>
+    <t>48.4900</t>
+  </si>
+  <si>
+    <t>143.9200</t>
+  </si>
+  <si>
+    <t>316.9480</t>
+  </si>
+  <si>
+    <t>47.8950</t>
+  </si>
+  <si>
+    <t>21.3670</t>
+  </si>
+  <si>
+    <t>108.1216</t>
+  </si>
+  <si>
+    <t>151.5640</t>
+  </si>
+  <si>
+    <t>13.6059</t>
+  </si>
+  <si>
+    <t>452.1800</t>
+  </si>
+  <si>
+    <t>63.6900</t>
+  </si>
+  <si>
+    <t>49.8100</t>
+  </si>
+  <si>
+    <t>179.0180</t>
+  </si>
+  <si>
+    <t>21.2527</t>
+  </si>
+  <si>
+    <t>61.5250</t>
+  </si>
+  <si>
+    <t>13.5749</t>
+  </si>
+  <si>
+    <t>85.7460</t>
+  </si>
+  <si>
+    <t>13.6878</t>
+  </si>
+  <si>
+    <t>717.3766</t>
+  </si>
+  <si>
+    <t>157.1400</t>
+  </si>
+  <si>
+    <t>53.1694</t>
+  </si>
+  <si>
+    <t>304.7297</t>
+  </si>
+  <si>
+    <t>47.7771</t>
+  </si>
+  <si>
+    <t>307.8759</t>
+  </si>
+  <si>
+    <t>13.4800</t>
+  </si>
+  <si>
+    <t>83.5777</t>
+  </si>
+  <si>
+    <t>61.41</t>
+  </si>
+  <si>
+    <t>60.94</t>
+  </si>
+  <si>
+    <t>47.25</t>
+  </si>
+  <si>
+    <t>60.71</t>
+  </si>
+  <si>
+    <t>57.99</t>
+  </si>
+  <si>
+    <t>61.23</t>
+  </si>
+  <si>
+    <t>55.18</t>
+  </si>
+  <si>
+    <t>65.65</t>
+  </si>
+  <si>
+    <t>71.85</t>
+  </si>
+  <si>
+    <t>56.43</t>
+  </si>
+  <si>
+    <t>62.48</t>
+  </si>
+  <si>
+    <t>58.75</t>
+  </si>
+  <si>
+    <t>52.42</t>
+  </si>
+  <si>
+    <t>59.28</t>
+  </si>
+  <si>
+    <t>45.03</t>
+  </si>
+  <si>
+    <t>47.96</t>
+  </si>
+  <si>
+    <t>64.68</t>
+  </si>
+  <si>
+    <t>73.86</t>
+  </si>
+  <si>
+    <t>52.98</t>
+  </si>
+  <si>
+    <t>59.27</t>
+  </si>
+  <si>
+    <t>60.76</t>
+  </si>
+  <si>
+    <t>70.46</t>
+  </si>
+  <si>
+    <t>53.90</t>
+  </si>
+  <si>
+    <t>50.84</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.29</t>
+  </si>
+  <si>
+    <t>72.90</t>
+  </si>
+  <si>
+    <t>11.93</t>
+  </si>
+  <si>
+    <t>7.62</t>
+  </si>
+  <si>
+    <t>12.52</t>
+  </si>
+  <si>
+    <t>15.21</t>
+  </si>
+  <si>
+    <t>12.44</t>
+  </si>
+  <si>
+    <t>10.47</t>
+  </si>
+  <si>
+    <t>11.28</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>14.75</t>
+  </si>
+  <si>
+    <t>12.15</t>
+  </si>
+  <si>
+    <t>6.47</t>
+  </si>
+  <si>
+    <t>19.19</t>
+  </si>
+  <si>
+    <t>8.25</t>
+  </si>
+  <si>
+    <t>12.70</t>
+  </si>
+  <si>
+    <t>12.28</t>
+  </si>
+  <si>
+    <t>13.14</t>
+  </si>
+  <si>
+    <t>15.05</t>
+  </si>
+  <si>
+    <t>9.42</t>
+  </si>
+  <si>
+    <t>16.77</t>
+  </si>
+  <si>
+    <t>13.65</t>
+  </si>
+  <si>
+    <t>20.96</t>
+  </si>
+  <si>
+    <t>17.64</t>
+  </si>
+  <si>
+    <t>17.39</t>
+  </si>
+  <si>
+    <t>17.18</t>
+  </si>
+  <si>
+    <t>13.06</t>
+  </si>
+  <si>
+    <t>13.94</t>
+  </si>
+  <si>
+    <t>15.15</t>
+  </si>
+  <si>
+    <t>16.39</t>
   </si>
   <si>
     <t>17.77</t>
   </si>
   <si>
-    <t>28.46</t>
-  </si>
-  <si>
-    <t>27.50</t>
-  </si>
-  <si>
-    <t>38.05</t>
-  </si>
-  <si>
-    <t>31.36</t>
-  </si>
-  <si>
-    <t>28.94</t>
-  </si>
-  <si>
-    <t>31.28</t>
-  </si>
-  <si>
-    <t>28.65</t>
-  </si>
-  <si>
-    <t>26.53</t>
-  </si>
-  <si>
-    <t>18.56</t>
-  </si>
-  <si>
-    <t>22.88</t>
-  </si>
-  <si>
-    <t>25.74</t>
-  </si>
-  <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>18.47</t>
-  </si>
-  <si>
-    <t>25.09</t>
-  </si>
-  <si>
-    <t>32.15</t>
-  </si>
-  <si>
-    <t>30.13</t>
-  </si>
-  <si>
-    <t>26.19</t>
-  </si>
-  <si>
-    <t>27.30</t>
-  </si>
-  <si>
-    <t>34.48</t>
-  </si>
-  <si>
-    <t>26.38</t>
-  </si>
-  <si>
-    <t>20.33</t>
-  </si>
-  <si>
-    <t>28.99</t>
-  </si>
-  <si>
-    <t>29.98</t>
-  </si>
-  <si>
-    <t>9.89</t>
-  </si>
-  <si>
-    <t>16.76</t>
-  </si>
-  <si>
-    <t>11.67</t>
-  </si>
-  <si>
-    <t>13.40</t>
+    <t>18.37</t>
+  </si>
+  <si>
+    <t>18.90</t>
+  </si>
+  <si>
+    <t>13.62</t>
+  </si>
+  <si>
+    <t>23.42</t>
+  </si>
+  <si>
+    <t>19.88</t>
+  </si>
+  <si>
+    <t>16.48</t>
+  </si>
+  <si>
+    <t>15.85</t>
+  </si>
+  <si>
+    <t>17.34</t>
+  </si>
+  <si>
+    <t>16.66</t>
+  </si>
+  <si>
+    <t>Baroda Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>BNP Paribas Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Multicap Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Multicap Fund</t>
+  </si>
+  <si>
+    <t>ITI Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Multi Cap Badhat Yojana</t>
+  </si>
+  <si>
+    <t>Nippon India Multi Cap Fund</t>
+  </si>
+  <si>
+    <t>Principal Multi Cap Growth Fund</t>
+  </si>
+  <si>
+    <t>Quant Active Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Equity Fund</t>
+  </si>
+  <si>
+    <t>Nifty 500 Multicap 50:25:25 Total Return Index</t>
+  </si>
+  <si>
+    <t>NIFTY 500 Total Return Index</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE AllCap Total Return Index</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE 500 Total Return Index</t>
+  </si>
+  <si>
+    <t>143.7600</t>
+  </si>
+  <si>
+    <t>69.1440</t>
+  </si>
+  <si>
+    <t>396.3100</t>
+  </si>
+  <si>
+    <t>71.2600</t>
+  </si>
+  <si>
+    <t>13.5993</t>
+  </si>
+  <si>
+    <t>17.0094</t>
+  </si>
+  <si>
+    <t>123.9384</t>
+  </si>
+  <si>
+    <t>193.6200</t>
+  </si>
+  <si>
+    <t>307.7380</t>
+  </si>
+  <si>
+    <t>13.8805</t>
+  </si>
+  <si>
+    <t>62.92</t>
+  </si>
+  <si>
+    <t>54.47</t>
+  </si>
+  <si>
+    <t>64.01</t>
+  </si>
+  <si>
+    <t>57.10</t>
+  </si>
+  <si>
+    <t>54.54</t>
+  </si>
+  <si>
+    <t>68.58</t>
+  </si>
+  <si>
+    <t>57.97</t>
+  </si>
+  <si>
+    <t>57.94</t>
+  </si>
+  <si>
+    <t>109.88</t>
+  </si>
+  <si>
+    <t>58.19</t>
+  </si>
+  <si>
+    <t>12.23</t>
+  </si>
+  <si>
+    <t>11.66</t>
+  </si>
+  <si>
+    <t>11.97</t>
+  </si>
+  <si>
+    <t>11.01</t>
+  </si>
+  <si>
+    <t>16.35</t>
+  </si>
+  <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>9.74</t>
+  </si>
+  <si>
+    <t>20.55</t>
+  </si>
+  <si>
+    <t>15.67</t>
+  </si>
+  <si>
+    <t>16.52</t>
+  </si>
+  <si>
+    <t>13.63</t>
+  </si>
+  <si>
+    <t>17.10</t>
+  </si>
+  <si>
+    <t>21.03</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Axis Midcap</t>
+  </si>
+  <si>
+    <t>Baroda Midcap</t>
+  </si>
+  <si>
+    <t>BNP Paribas Midcap Fund</t>
+  </si>
+  <si>
+    <t>DSP Midcap Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Prima Fund</t>
+  </si>
+  <si>
+    <t>HDFC Mid-Cap Opportunities Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Midcap Fund</t>
+  </si>
+  <si>
+    <t>IDBI Midcap Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Kotak Emerging Equity Fund</t>
+  </si>
+  <si>
+    <t>L&amp;T Midcap Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Mid Cap Unnati Yojana</t>
+  </si>
+  <si>
+    <t>Mirae Asset Midcap Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Midcap 30 Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Growth Fund</t>
+  </si>
+  <si>
+    <t>PGIM India Midcap Opportunities Fund</t>
+  </si>
+  <si>
+    <t>Principal Midcap Fund</t>
+  </si>
+  <si>
+    <t>Quant Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>SBI Magnum Midcap Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>Tata Midcap Growth Fund</t>
+  </si>
+  <si>
+    <t>Taurus Discovery (Midcap) Fund</t>
+  </si>
+  <si>
+    <t>UTI Mid Cap Fund</t>
+  </si>
+  <si>
+    <t>NIFTY Midcap 100 Total Return Index</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE Mid Cap Total Return Index</t>
+  </si>
+  <si>
+    <t>NIFTY Midcap 150 Total Return Index</t>
+  </si>
+  <si>
+    <t>383.1900</t>
+  </si>
+  <si>
+    <t>61.3600</t>
+  </si>
+  <si>
+    <t>13.9800</t>
+  </si>
+  <si>
+    <t>52.9540</t>
+  </si>
+  <si>
+    <t>82.2520</t>
+  </si>
+  <si>
+    <t>43.8590</t>
+  </si>
+  <si>
+    <t>1,388.7117</t>
+  </si>
+  <si>
+    <t>79.8280</t>
+  </si>
+  <si>
+    <t>139.6600</t>
+  </si>
+  <si>
+    <t>15.5600</t>
+  </si>
+  <si>
+    <t>80.1400</t>
+  </si>
+  <si>
+    <t>63.4390</t>
+  </si>
+  <si>
+    <t>189.3600</t>
+  </si>
+  <si>
+    <t>14.4035</t>
+  </si>
+  <si>
+    <t>16.8010</t>
+  </si>
+  <si>
+    <t>36.3023</t>
+  </si>
+  <si>
+    <t>1,695.6637</t>
+  </si>
+  <si>
+    <t>34.3800</t>
+  </si>
+  <si>
+    <t>14.1400</t>
+  </si>
+  <si>
+    <t>87.8189</t>
+  </si>
+  <si>
+    <t>116.3909</t>
+  </si>
+  <si>
+    <t>618.8682</t>
+  </si>
+  <si>
+    <t>213.2853</t>
+  </si>
+  <si>
+    <t>64.1800</t>
+  </si>
+  <si>
+    <t>158.1690</t>
+  </si>
+  <si>
+    <t>57.48</t>
+  </si>
+  <si>
+    <t>70.07</t>
+  </si>
+  <si>
+    <t>70.14</t>
+  </si>
+  <si>
+    <t>56.11</t>
+  </si>
+  <si>
+    <t>76.56</t>
+  </si>
+  <si>
+    <t>66.43</t>
+  </si>
+  <si>
+    <t>74.64</t>
+  </si>
+  <si>
+    <t>64.83</t>
+  </si>
+  <si>
+    <t>59.07</t>
+  </si>
+  <si>
+    <t>69.30</t>
+  </si>
+  <si>
+    <t>57.85</t>
+  </si>
+  <si>
+    <t>61.09</t>
+  </si>
+  <si>
+    <t>80.31</t>
+  </si>
+  <si>
+    <t>44.79</t>
+  </si>
+  <si>
+    <t>63.27</t>
+  </si>
+  <si>
+    <t>100.23</t>
+  </si>
+  <si>
+    <t>64.04</t>
+  </si>
+  <si>
+    <t>85.60</t>
+  </si>
+  <si>
+    <t>76.96</t>
+  </si>
+  <si>
+    <t>52.57</t>
+  </si>
+  <si>
+    <t>62.80</t>
+  </si>
+  <si>
+    <t>60.21</t>
+  </si>
+  <si>
+    <t>72.27</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>20.66</t>
+  </si>
+  <si>
+    <t>11.47</t>
+  </si>
+  <si>
+    <t>14.27</t>
+  </si>
+  <si>
+    <t>12.95</t>
+  </si>
+  <si>
+    <t>11.15</t>
+  </si>
+  <si>
+    <t>10.78</t>
+  </si>
+  <si>
+    <t>9.37</t>
+  </si>
+  <si>
+    <t>16.60</t>
+  </si>
+  <si>
+    <t>14.99</t>
+  </si>
+  <si>
+    <t>8.92</t>
+  </si>
+  <si>
+    <t>14.58</t>
+  </si>
+  <si>
+    <t>11.92</t>
+  </si>
+  <si>
+    <t>14.08</t>
+  </si>
+  <si>
+    <t>19.69</t>
+  </si>
+  <si>
+    <t>16.40</t>
+  </si>
+  <si>
+    <t>11.53</t>
+  </si>
+  <si>
+    <t>6.26</t>
+  </si>
+  <si>
+    <t>14.53</t>
+  </si>
+  <si>
+    <t>11.90</t>
+  </si>
+  <si>
+    <t>11.68</t>
+  </si>
+  <si>
+    <t>21.56</t>
+  </si>
+  <si>
+    <t>16.43</t>
+  </si>
+  <si>
+    <t>17.84</t>
+  </si>
+  <si>
+    <t>19.26</t>
+  </si>
+  <si>
+    <t>19.47</t>
+  </si>
+  <si>
+    <t>16.75</t>
+  </si>
+  <si>
+    <t>17.66</t>
+  </si>
+  <si>
+    <t>16.67</t>
+  </si>
+  <si>
+    <t>19.85</t>
+  </si>
+  <si>
+    <t>20.58</t>
+  </si>
+  <si>
+    <t>18.07</t>
+  </si>
+  <si>
+    <t>13.86</t>
+  </si>
+  <si>
+    <t>18.44</t>
+  </si>
+  <si>
+    <t>19.91</t>
+  </si>
+  <si>
+    <t>14.71</t>
+  </si>
+  <si>
+    <t>15.20</t>
+  </si>
+  <si>
+    <t>14.23</t>
+  </si>
+  <si>
+    <t>18.09</t>
+  </si>
+  <si>
+    <t>19.06</t>
+  </si>
+  <si>
+    <t>16.21</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Axis Small Cap Fund</t>
+  </si>
+  <si>
+    <t>BOI AXA Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco Small Cap Fund</t>
+  </si>
+  <si>
+    <t>DSP Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Smaller Companies Fund</t>
+  </si>
+  <si>
+    <t>HDFC Small Cap Fund</t>
+  </si>
+  <si>
+    <t>HSBC Small Cap Equity Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Smallcap Fund</t>
+  </si>
+  <si>
+    <t>IDBI Small Cap Fund</t>
+  </si>
+  <si>
+    <t>IDFC Emerging Businesses Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Smallcap Fund</t>
+  </si>
+  <si>
+    <t>ITI Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Kotak Small Cap Fund</t>
+  </si>
+  <si>
+    <t>L&amp;T Emerging Businesses Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Small Cap</t>
+  </si>
+  <si>
+    <t>Principal Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Quant Small Cap Fund</t>
+  </si>
+  <si>
+    <t>SBI Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Tata Small Cap Fund</t>
+  </si>
+  <si>
+    <t>Union Small Cap Fund</t>
+  </si>
+  <si>
+    <t>NIFTY Smallcap 100 Total Return Index</t>
+  </si>
+  <si>
+    <t>NIFTY Smallcap 250 Total Return Index</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE Small Cap Total Return Index</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE 250 SmallCap Total Return Index</t>
+  </si>
+  <si>
+    <t>47.3445</t>
+  </si>
+  <si>
+    <t>47.9300</t>
+  </si>
+  <si>
+    <t>19.2700</t>
+  </si>
+  <si>
+    <t>16.2400</t>
+  </si>
+  <si>
+    <t>84.6900</t>
+  </si>
+  <si>
+    <t>18.5450</t>
+  </si>
+  <si>
+    <t>74.7888</t>
+  </si>
+  <si>
+    <t>58.7580</t>
+  </si>
+  <si>
+    <t>69.7375</t>
+  </si>
+  <si>
+    <t>39.5800</t>
+  </si>
+  <si>
+    <t>13.3000</t>
+  </si>
+  <si>
+    <t>16.9000</t>
+  </si>
+  <si>
+    <t>16.2900</t>
+  </si>
+  <si>
+    <t>13.1303</t>
+  </si>
+  <si>
+    <t>133.0570</t>
+  </si>
+  <si>
+    <t>32.6190</t>
+  </si>
+  <si>
+    <t>65.0436</t>
+  </si>
+  <si>
+    <t>16.7900</t>
+  </si>
+  <si>
+    <t>84.7346</t>
+  </si>
+  <si>
+    <t>88.5682</t>
+  </si>
+  <si>
+    <t>113.8689</t>
+  </si>
+  <si>
+    <t>16.2178</t>
+  </si>
+  <si>
+    <t>22.4100</t>
+  </si>
+  <si>
+    <t>79.31</t>
+  </si>
+  <si>
+    <t>53.33</t>
+  </si>
+  <si>
+    <t>86.36</t>
+  </si>
+  <si>
+    <t>83.30</t>
+  </si>
+  <si>
+    <t>75.62</t>
+  </si>
+  <si>
+    <t>86.68</t>
+  </si>
+  <si>
+    <t>70.70</t>
+  </si>
+  <si>
+    <t>76.36</t>
+  </si>
+  <si>
+    <t>80.40</t>
+  </si>
+  <si>
+    <t>77.81</t>
+  </si>
+  <si>
+    <t>65.01</t>
+  </si>
+  <si>
+    <t>81.53</t>
+  </si>
+  <si>
+    <t>64.55</t>
+  </si>
+  <si>
+    <t>70.15</t>
+  </si>
+  <si>
+    <t>95.67</t>
+  </si>
+  <si>
+    <t>73.38</t>
+  </si>
+  <si>
+    <t>89.30</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>150.20</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>71.65</t>
+  </si>
+  <si>
+    <t>74.06</t>
+  </si>
+  <si>
+    <t>73.99</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>18.53</t>
+  </si>
+  <si>
+    <t>8.57</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>7.48</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>10.98</t>
+  </si>
+  <si>
+    <t>7.55</t>
+  </si>
+  <si>
+    <t>16.82</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>11.76</t>
+  </si>
+  <si>
+    <t>18.40</t>
+  </si>
+  <si>
+    <t>13.74</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>10.01</t>
+  </si>
+  <si>
+    <t>14.89</t>
+  </si>
+  <si>
+    <t>20.47</t>
+  </si>
+  <si>
+    <t>16.06</t>
+  </si>
+  <si>
+    <t>18.71</t>
+  </si>
+  <si>
+    <t>14.09</t>
+  </si>
+  <si>
+    <t>16.34</t>
+  </si>
+  <si>
+    <t>21.17</t>
+  </si>
+  <si>
+    <t>18.85</t>
+  </si>
+  <si>
+    <t>22.12</t>
+  </si>
+  <si>
+    <t>23.15</t>
+  </si>
+  <si>
+    <t>12.91</t>
+  </si>
+  <si>
+    <t>15.56</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Pure Value Fund</t>
+  </si>
+  <si>
+    <t>HDFC Capital Builder Value Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Value Discovery Fund</t>
+  </si>
+  <si>
+    <t>IDBI Long Term Value Fund</t>
+  </si>
+  <si>
+    <t>IDFC Sterling Value Fund</t>
+  </si>
+  <si>
+    <t>Indiabulls Value Fund</t>
+  </si>
+  <si>
+    <t>JM Value Fund</t>
+  </si>
+  <si>
+    <t>L&amp;T India Value Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Value Fund</t>
+  </si>
+  <si>
+    <t>Quantum Long Term Equity Value Fund</t>
+  </si>
+  <si>
+    <t>Tata Equity PE Fund</t>
+  </si>
+  <si>
+    <t>Templeton India Value Fund</t>
+  </si>
+  <si>
+    <t>Union Value Discovery Fund</t>
+  </si>
+  <si>
+    <t>UTI Value Opportunities Fund</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE Enhanced Value Total Return Index</t>
+  </si>
+  <si>
+    <t>Nifty 500 Value 50 Total Return Index</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE 400 MidSmallCap Total Return Index</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE 200 Total Return Index</t>
+  </si>
+  <si>
+    <t>65.4139</t>
+  </si>
+  <si>
+    <t>382.6150</t>
+  </si>
+  <si>
+    <t>210.4900</t>
+  </si>
+  <si>
+    <t>13.7000</t>
+  </si>
+  <si>
+    <t>71.1600</t>
+  </si>
+  <si>
+    <t>15.9526</t>
+  </si>
+  <si>
+    <t>46.0398</t>
+  </si>
+  <si>
+    <t>49.3720</t>
+  </si>
+  <si>
+    <t>104.4958</t>
+  </si>
+  <si>
+    <t>67.2900</t>
+  </si>
+  <si>
+    <t>179.6460</t>
+  </si>
+  <si>
+    <t>346.4370</t>
+  </si>
+  <si>
+    <t>14.1800</t>
+  </si>
+  <si>
+    <t>89.0729</t>
+  </si>
+  <si>
+    <t>72.84</t>
+  </si>
+  <si>
+    <t>69.38</t>
+  </si>
+  <si>
+    <t>77.49</t>
+  </si>
+  <si>
+    <t>55.15</t>
+  </si>
+  <si>
+    <t>79.11</t>
+  </si>
+  <si>
+    <t>56.49</t>
+  </si>
+  <si>
+    <t>56.27</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>67.78</t>
+  </si>
+  <si>
+    <t>67.89</t>
+  </si>
+  <si>
+    <t>58.44</t>
+  </si>
+  <si>
+    <t>84.04</t>
+  </si>
+  <si>
+    <t>70.43</t>
+  </si>
+  <si>
+    <t>62.82</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>8.52</t>
+  </si>
+  <si>
+    <t>12.57</t>
+  </si>
+  <si>
+    <t>7.38</t>
+  </si>
+  <si>
+    <t>8.91</t>
+  </si>
+  <si>
+    <t>12.34</t>
+  </si>
+  <si>
+    <t>8.69</t>
+  </si>
+  <si>
+    <t>8.62</t>
+  </si>
+  <si>
+    <t>14.28</t>
+  </si>
+  <si>
+    <t>11.95</t>
+  </si>
+  <si>
+    <t>14.31</t>
+  </si>
+  <si>
+    <t>17.25</t>
+  </si>
+  <si>
+    <t>11.14</t>
+  </si>
+  <si>
+    <t>18.94</t>
+  </si>
+  <si>
+    <t>15.96</t>
+  </si>
+  <si>
+    <t>16.79</t>
+  </si>
+  <si>
+    <t>12.73</t>
+  </si>
+  <si>
+    <t>17.67</t>
+  </si>
+  <si>
+    <t>14.61</t>
+  </si>
+  <si>
+    <t>15.53</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Tax Relief 96 Fund</t>
+  </si>
+  <si>
+    <t>Axis Long Term Equity Fund</t>
+  </si>
+  <si>
+    <t>Baroda ELSS 96 Fund</t>
+  </si>
+  <si>
+    <t>BNP Paribas Long Term Equity Fund</t>
+  </si>
+  <si>
+    <t>BOI AXA Tax Advantage Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco Equity Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>DSP Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Long Term Equity Fund (Tax Savings)</t>
+  </si>
+  <si>
+    <t>Essel Long Term Advantage Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Taxshield Fund</t>
+  </si>
+  <si>
+    <t>HDFC Taxsaver Fund</t>
+  </si>
+  <si>
+    <t>HSBC Tax Saver Equity Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Long Term Equity Fund (Tax Saving)</t>
+  </si>
+  <si>
+    <t>IDBI Equity Advantage Fund</t>
+  </si>
+  <si>
+    <t>IDFC Tax Advantage (ELSS) Fund</t>
+  </si>
+  <si>
+    <t>Indiabulls Tax Savings Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Tax Plan Fund</t>
+  </si>
+  <si>
+    <t>ITI Long Term Equity Fund</t>
+  </si>
+  <si>
+    <t>JM Tax Gain Fund</t>
+  </si>
+  <si>
+    <t>Kotak Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Tax Plan Fund</t>
+  </si>
+  <si>
+    <t>L&amp;T Tax Advantage Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife ELSS Kar Bachat Yojana</t>
+  </si>
+  <si>
+    <t>Mirae Asset Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Long Term Equity Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Tax Saver (ELSS) Fund</t>
+  </si>
+  <si>
+    <t>Parag Parikh Tax Saver Fund</t>
+  </si>
+  <si>
+    <t>PGIM India Long Term Equity Fund</t>
+  </si>
+  <si>
+    <t>Principal Tax Savings Fund</t>
+  </si>
+  <si>
+    <t>Quant Tax Plan</t>
+  </si>
+  <si>
+    <t>Quantum Tax Saving Fund</t>
+  </si>
+  <si>
+    <t>SBI Long Term Equity Fund</t>
+  </si>
+  <si>
+    <t>Shriram Long Term Equity Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Diversified Equity Fund</t>
+  </si>
+  <si>
+    <t>Tata India Tax Savings Fund</t>
+  </si>
+  <si>
+    <t>Taurus Tax Shield Fund</t>
+  </si>
+  <si>
+    <t>Union Long Term Equity</t>
+  </si>
+  <si>
+    <t>UTI Long Term Equity Fund</t>
+  </si>
+  <si>
+    <t>42.2700</t>
+  </si>
+  <si>
+    <t>68.0344</t>
+  </si>
+  <si>
+    <t>43.8000</t>
+  </si>
+  <si>
+    <t>55.7170</t>
+  </si>
+  <si>
+    <t>88.4000</t>
+  </si>
+  <si>
+    <t>101.7300</t>
+  </si>
+  <si>
+    <t>70.2600</t>
+  </si>
+  <si>
+    <t>66.1300</t>
+  </si>
+  <si>
+    <t>19.0240</t>
+  </si>
+  <si>
+    <t>771.1595</t>
+  </si>
+  <si>
+    <t>624.0860</t>
+  </si>
+  <si>
+    <t>49.6569</t>
+  </si>
+  <si>
+    <t>529.6000</t>
+  </si>
+  <si>
+    <t>35.3500</t>
+  </si>
+  <si>
+    <t>83.6200</t>
+  </si>
+  <si>
+    <t>12.2700</t>
+  </si>
+  <si>
+    <t>77.3700</t>
+  </si>
+  <si>
+    <t>13.4622</t>
+  </si>
+  <si>
+    <t>25.7670</t>
+  </si>
+  <si>
+    <t>65.8250</t>
+  </si>
+  <si>
+    <t>89.9393</t>
+  </si>
+  <si>
+    <t>71.3420</t>
+  </si>
+  <si>
+    <t>16.5866</t>
+  </si>
+  <si>
+    <t>27.7950</t>
+  </si>
+  <si>
+    <t>24.1838</t>
+  </si>
+  <si>
+    <t>67.5394</t>
+  </si>
+  <si>
+    <t>15.0331</t>
+  </si>
+  <si>
+    <t>20.2100</t>
+  </si>
+  <si>
+    <t>277.9800</t>
+  </si>
+  <si>
+    <t>165.2199</t>
+  </si>
+  <si>
+    <t>66.8200</t>
+  </si>
+  <si>
+    <t>193.8650</t>
+  </si>
+  <si>
+    <t>13.8695</t>
+  </si>
+  <si>
+    <t>127.1202</t>
+  </si>
+  <si>
+    <t>132.7057</t>
+  </si>
+  <si>
+    <t>103.0700</t>
+  </si>
+  <si>
+    <t>128.5249</t>
+  </si>
+  <si>
+    <t>45.61</t>
+  </si>
+  <si>
+    <t>48.36</t>
+  </si>
+  <si>
+    <t>59.85</t>
+  </si>
+  <si>
+    <t>52.59</t>
+  </si>
+  <si>
+    <t>61.93</t>
+  </si>
+  <si>
+    <t>66.17</t>
+  </si>
+  <si>
+    <t>55.20</t>
+  </si>
+  <si>
+    <t>47.63</t>
+  </si>
+  <si>
+    <t>63.06</t>
+  </si>
+  <si>
+    <t>57.66</t>
+  </si>
+  <si>
+    <t>52.12</t>
+  </si>
+  <si>
+    <t>65.53</t>
+  </si>
+  <si>
+    <t>37.28</t>
+  </si>
+  <si>
+    <t>79.52</t>
+  </si>
+  <si>
+    <t>50.18</t>
+  </si>
+  <si>
+    <t>56.56</t>
+  </si>
+  <si>
+    <t>62.96</t>
+  </si>
+  <si>
+    <t>54.66</t>
+  </si>
+  <si>
+    <t>59.35</t>
+  </si>
+  <si>
+    <t>38.57</t>
+  </si>
+  <si>
+    <t>56.24</t>
+  </si>
+  <si>
+    <t>61.68</t>
+  </si>
+  <si>
+    <t>77.33</t>
+  </si>
+  <si>
+    <t>46.04</t>
+  </si>
+  <si>
+    <t>57.09</t>
+  </si>
+  <si>
+    <t>64.17</t>
+  </si>
+  <si>
+    <t>66.06</t>
+  </si>
+  <si>
+    <t>62.67</t>
+  </si>
+  <si>
+    <t>121.44</t>
+  </si>
+  <si>
+    <t>67.55</t>
+  </si>
+  <si>
+    <t>63.69</t>
+  </si>
+  <si>
+    <t>44.17</t>
+  </si>
+  <si>
+    <t>52.19</t>
+  </si>
+  <si>
+    <t>48.05</t>
+  </si>
+  <si>
+    <t>62.45</t>
+  </si>
+  <si>
+    <t>60.46</t>
+  </si>
+  <si>
+    <t>9.86</t>
   </si>
   <si>
     <t>16.89</t>
   </si>
   <si>
-    <t>8.39</t>
-  </si>
-  <si>
-    <t>12.95</t>
-  </si>
-  <si>
-    <t>10.69</t>
-  </si>
-  <si>
-    <t>10.96</t>
-  </si>
-  <si>
-    <t>9.67</t>
-  </si>
-  <si>
-    <t>11.49</t>
-  </si>
-  <si>
-    <t>11.15</t>
-  </si>
-  <si>
-    <t>11.72</t>
-  </si>
-  <si>
-    <t>11.16</t>
-  </si>
-  <si>
-    <t>8.89</t>
-  </si>
-  <si>
-    <t>10.94</t>
-  </si>
-  <si>
-    <t>9.86</t>
+    <t>9.12</t>
+  </si>
+  <si>
+    <t>14.38</t>
+  </si>
+  <si>
+    <t>14.25</t>
+  </si>
+  <si>
+    <t>19.76</t>
+  </si>
+  <si>
+    <t>14.66</t>
+  </si>
+  <si>
+    <t>10.88</t>
+  </si>
+  <si>
+    <t>11.43</t>
+  </si>
+  <si>
+    <t>11.42</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>9.15</t>
+  </si>
+  <si>
+    <t>13.26</t>
+  </si>
+  <si>
+    <t>9.44</t>
+  </si>
+  <si>
+    <t>11.78</t>
+  </si>
+  <si>
+    <t>14.93</t>
+  </si>
+  <si>
+    <t>15.48</t>
+  </si>
+  <si>
+    <t>10.90</t>
+  </si>
+  <si>
+    <t>7.90</t>
+  </si>
+  <si>
+    <t>19.30</t>
+  </si>
+  <si>
+    <t>9.33</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>9.30</t>
+  </si>
+  <si>
+    <t>22.48</t>
+  </si>
+  <si>
+    <t>9.46</t>
+  </si>
+  <si>
+    <t>10.57</t>
+  </si>
+  <si>
+    <t>7.57</t>
   </si>
   <si>
     <t>13.07</t>
   </si>
   <si>
-    <t>11.75</t>
-  </si>
-  <si>
-    <t>10.66</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>10.02</t>
+  </si>
+  <si>
+    <t>13.92</t>
+  </si>
+  <si>
+    <t>15.57</t>
+  </si>
+  <si>
+    <t>18.28</t>
+  </si>
+  <si>
+    <t>13.30</t>
+  </si>
+  <si>
+    <t>15.27</t>
+  </si>
+  <si>
+    <t>20.07</t>
+  </si>
+  <si>
+    <t>19.52</t>
+  </si>
+  <si>
+    <t>18.27</t>
+  </si>
+  <si>
+    <t>14.77</t>
+  </si>
+  <si>
+    <t>13.67</t>
   </si>
   <si>
     <t>12.78</t>
   </si>
   <si>
-    <t>9.03</t>
-  </si>
-  <si>
-    <t>11.10</t>
+    <t>14.80</t>
+  </si>
+  <si>
+    <t>15.72</t>
+  </si>
+  <si>
+    <t>13.48</t>
+  </si>
+  <si>
+    <t>18.41</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>19.23</t>
+  </si>
+  <si>
+    <t>17.95</t>
+  </si>
+  <si>
+    <t>15.08</t>
+  </si>
+  <si>
+    <t>24.05</t>
+  </si>
+  <si>
+    <t>18.23</t>
+  </si>
+  <si>
+    <t>10.24</t>
+  </si>
+  <si>
+    <t>16.29</t>
+  </si>
+  <si>
+    <t>16.56</t>
+  </si>
+  <si>
+    <t>23.61</t>
+  </si>
+  <si>
+    <t>12.84</t>
+  </si>
+  <si>
+    <t>13.46</t>
+  </si>
+  <si>
+    <t>13.53</t>
+  </si>
+  <si>
+    <t>17.55</t>
+  </si>
+  <si>
+    <t>16.14</t>
+  </si>
+  <si>
+    <t>15.95</t>
+  </si>
+  <si>
+    <t>Invesco India Contra Fund</t>
+  </si>
+  <si>
+    <t>Kotak India EQ Contra Fund</t>
+  </si>
+  <si>
+    <t>SBI Contra Fund</t>
+  </si>
+  <si>
+    <t>71.7400</t>
+  </si>
+  <si>
+    <t>78.7630</t>
+  </si>
+  <si>
+    <t>165.3712</t>
+  </si>
+  <si>
+    <t>64.66</t>
+  </si>
+  <si>
+    <t>94.37</t>
+  </si>
+  <si>
+    <t>13.89</t>
+  </si>
+  <si>
+    <t>16.13</t>
   </si>
   <si>
     <t>11.87</t>
   </si>
   <si>
-    <t>10.55</t>
-  </si>
-  <si>
-    <t>6.79</t>
-  </si>
-  <si>
-    <t>9.58</t>
-  </si>
-  <si>
-    <t>12.18</t>
-  </si>
-  <si>
-    <t>15.77</t>
-  </si>
-  <si>
-    <t>19.45</t>
-  </si>
-  <si>
-    <t>16.22</t>
-  </si>
-  <si>
-    <t>16.69</t>
-  </si>
-  <si>
-    <t>19.90</t>
-  </si>
-  <si>
-    <t>14.35</t>
-  </si>
-  <si>
-    <t>17.28</t>
-  </si>
-  <si>
-    <t>16.03</t>
-  </si>
-  <si>
-    <t>15.16</t>
-  </si>
-  <si>
-    <t>17.51</t>
-  </si>
-  <si>
-    <t>17.58</t>
-  </si>
-  <si>
-    <t>17.59</t>
-  </si>
-  <si>
-    <t>15.09</t>
-  </si>
-  <si>
-    <t>16.58</t>
-  </si>
-  <si>
-    <t>16.25</t>
-  </si>
-  <si>
-    <t>16.04</t>
+    <t>19.46</t>
+  </si>
+  <si>
+    <t>19.04</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Dividend Yield Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Dividend Yield Equity Fund</t>
+  </si>
+  <si>
+    <t>IDBI Dividend Yield Fund</t>
+  </si>
+  <si>
+    <t>Principal Dividend Yield Fund</t>
+  </si>
+  <si>
+    <t>Templeton India Equity Income Fund</t>
+  </si>
+  <si>
+    <t>UTI Dividend Yield Fund</t>
+  </si>
+  <si>
+    <t>NIFTY Dividend Opportunities 50 Total Return Index</t>
+  </si>
+  <si>
+    <t>211.8900</t>
+  </si>
+  <si>
+    <t>21.7500</t>
+  </si>
+  <si>
+    <t>14.6500</t>
+  </si>
+  <si>
+    <t>73.8700</t>
+  </si>
+  <si>
+    <t>68.0501</t>
+  </si>
+  <si>
+    <t>89.1624</t>
+  </si>
+  <si>
+    <t>56.86</t>
+  </si>
+  <si>
+    <t>76.40</t>
+  </si>
+  <si>
+    <t>58.55</t>
+  </si>
+  <si>
+    <t>59.75</t>
+  </si>
+  <si>
+    <t>78.15</t>
+  </si>
+  <si>
+    <t>64.54</t>
+  </si>
+  <si>
+    <t>5.61</t>
+  </si>
+  <si>
+    <t>6.66</t>
+  </si>
+  <si>
+    <t>12.21</t>
+  </si>
+  <si>
+    <t>12.13</t>
+  </si>
+  <si>
+    <t>11.52</t>
+  </si>
+  <si>
+    <t>11.19</t>
+  </si>
+  <si>
+    <t>14.29</t>
+  </si>
+  <si>
+    <t>18.46</t>
+  </si>
+  <si>
+    <t>16.63</t>
+  </si>
+  <si>
+    <t>15.28</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Focused Equity Fund</t>
+  </si>
+  <si>
+    <t>Axis Focused 25</t>
+  </si>
+  <si>
+    <t>BNP Paribas Focused 25 Equity Fund</t>
+  </si>
+  <si>
+    <t>DSP Focus Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Focused Equity Fund</t>
+  </si>
+  <si>
+    <t>HDFC Focused 30 Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Focused Equity Fund</t>
+  </si>
+  <si>
+    <t>IDBI Focused 30 Equity Fund</t>
+  </si>
+  <si>
+    <t>IDFC Focused Equity Fund</t>
+  </si>
+  <si>
+    <t>IIFL Focused Equity Fund</t>
+  </si>
+  <si>
+    <t>JM Core 11 Fund</t>
+  </si>
+  <si>
+    <t>Kotak Focused Equity Fund</t>
+  </si>
+  <si>
+    <t>L&amp;T Focused Equity Fund</t>
+  </si>
+  <si>
+    <t>Mirae Asset Focused Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Focused 25 Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Focused Equity Fund</t>
+  </si>
+  <si>
+    <t>Principal Focused Multicap Fund</t>
+  </si>
+  <si>
+    <t>Quant Focused Fund</t>
+  </si>
+  <si>
+    <t>SBI Focused Equity Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Select Focus Fund</t>
+  </si>
+  <si>
+    <t>Tata Focused Equity Fund</t>
+  </si>
+  <si>
+    <t>Union Focused Fund</t>
+  </si>
+  <si>
+    <t>83.0118</t>
+  </si>
+  <si>
+    <t>42.4600</t>
+  </si>
+  <si>
+    <t>13.0150</t>
+  </si>
+  <si>
+    <t>31.5460</t>
+  </si>
+  <si>
+    <t>58.6300</t>
+  </si>
+  <si>
+    <t>97.2020</t>
+  </si>
+  <si>
+    <t>43.6400</t>
+  </si>
+  <si>
+    <t>13.2900</t>
+  </si>
+  <si>
+    <t>52.4500</t>
+  </si>
+  <si>
+    <t>26.4350</t>
+  </si>
+  <si>
+    <t>11.2678</t>
+  </si>
+  <si>
+    <t>14.0930</t>
+  </si>
+  <si>
+    <t>14.4600</t>
+  </si>
+  <si>
+    <t>16.5070</t>
+  </si>
+  <si>
+    <t>33.2392</t>
+  </si>
+  <si>
+    <t>70.1221</t>
+  </si>
+  <si>
+    <t>95.8700</t>
+  </si>
+  <si>
+    <t>45.7457</t>
+  </si>
+  <si>
+    <t>203.9914</t>
+  </si>
+  <si>
+    <t>246.3737</t>
+  </si>
+  <si>
+    <t>12.7304</t>
+  </si>
+  <si>
+    <t>15.1200</t>
+  </si>
+  <si>
+    <t>54.09</t>
+  </si>
+  <si>
+    <t>47.12</t>
+  </si>
+  <si>
+    <t>51.94</t>
+  </si>
+  <si>
+    <t>49.12</t>
+  </si>
+  <si>
+    <t>65.12</t>
+  </si>
+  <si>
+    <t>59.74</t>
+  </si>
+  <si>
+    <t>73.66</t>
+  </si>
+  <si>
+    <t>54.90</t>
+  </si>
+  <si>
+    <t>48.08</t>
+  </si>
+  <si>
+    <t>58.86</t>
+  </si>
+  <si>
+    <t>32.79</t>
+  </si>
+  <si>
+    <t>57.98</t>
+  </si>
+  <si>
+    <t>52.05</t>
+  </si>
+  <si>
+    <t>53.27</t>
+  </si>
+  <si>
+    <t>83.70</t>
+  </si>
+  <si>
+    <t>56.09</t>
+  </si>
+  <si>
+    <t>85.15</t>
+  </si>
+  <si>
+    <t>43.20</t>
+  </si>
+  <si>
+    <t>50.68</t>
+  </si>
+  <si>
+    <t>61.42</t>
+  </si>
+  <si>
+    <t>63.46</t>
+  </si>
+  <si>
+    <t>12.47</t>
+  </si>
+  <si>
+    <t>16.87</t>
+  </si>
+  <si>
+    <t>10.62</t>
+  </si>
+  <si>
+    <t>11.58</t>
+  </si>
+  <si>
+    <t>13.10</t>
+  </si>
+  <si>
+    <t>5.83</t>
+  </si>
+  <si>
+    <t>13.47</t>
+  </si>
+  <si>
+    <t>10.49</t>
+  </si>
+  <si>
+    <t>8.53</t>
+  </si>
+  <si>
+    <t>21.88</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>14.97</t>
+  </si>
+  <si>
+    <t>13.08</t>
   </si>
   <si>
     <t>13.37</t>
   </si>
   <si>
-    <t>17.14</t>
-  </si>
-  <si>
-    <t>15.45</t>
-  </si>
-  <si>
-    <t>15.17</t>
-  </si>
-  <si>
-    <t>19.60</t>
-  </si>
-  <si>
-    <t>16.78</t>
-  </si>
-  <si>
-    <t>15.54</t>
-  </si>
-  <si>
-    <t>16.48</t>
-  </si>
-  <si>
-    <t>15.51</t>
-  </si>
-  <si>
-    <t>11.64</t>
-  </si>
-  <si>
-    <t>16.43</t>
-  </si>
-  <si>
-    <t>Aditya Birla Sun Life Equity Advantage Fund</t>
-  </si>
-  <si>
-    <t>Axis Growth Opportunities Fund</t>
-  </si>
-  <si>
-    <t>BOI AXA Large &amp; Mid Cap Equity Fund</t>
-  </si>
-  <si>
-    <t>Canara Robeco Emerging Equities Fund</t>
-  </si>
-  <si>
-    <t>DSP Equity Opportunities Fund</t>
-  </si>
-  <si>
-    <t>Edelweiss Large &amp; Mid Cap Fund</t>
-  </si>
-  <si>
-    <t>Essel Large &amp; Midcap Fund</t>
-  </si>
-  <si>
-    <t>Franklin India Equity Advantage Fund</t>
-  </si>
-  <si>
-    <t>HDFC Growth Opportunities Fund</t>
-  </si>
-  <si>
-    <t>HSBC Large and Mid Cap Equity Fund</t>
-  </si>
-  <si>
-    <t>ICICI Prudential Large &amp; Mid Cap Fund</t>
-  </si>
-  <si>
-    <t>IDFC Core Equity Fund</t>
-  </si>
-  <si>
-    <t>Invesco India Growth Opportunities Fund</t>
-  </si>
-  <si>
-    <t>Kotak Equity Opportunities Fund</t>
-  </si>
-  <si>
-    <t>LIC MF Large &amp; Mid Cap Fund</t>
-  </si>
-  <si>
-    <t>L&amp;T Large and Midcap Fund</t>
-  </si>
-  <si>
-    <t>Mahindra Manulife Top 250 Nivesh Yojana</t>
-  </si>
-  <si>
-    <t>Mirae Asset Emerging Bluechip</t>
-  </si>
-  <si>
-    <t>Motilal Oswal Large and Midcap Fund</t>
-  </si>
-  <si>
-    <t>Nippon India Vision Fund</t>
-  </si>
-  <si>
-    <t>Principal Emerging Bluechip Fund</t>
-  </si>
-  <si>
-    <t>Quant Large and Mid Cap Fund</t>
-  </si>
-  <si>
-    <t>SBI Large &amp; Midcap Fund</t>
-  </si>
-  <si>
-    <t>Sundaram Large and Mid Cap Fund</t>
-  </si>
-  <si>
-    <t>Tata Large &amp; Mid Cap Fund</t>
-  </si>
-  <si>
-    <t>Union Large &amp; Midcap Fund</t>
-  </si>
-  <si>
-    <t>UTI Core Equity Fund</t>
-  </si>
-  <si>
-    <t>NIFTY Large Midcap 250 Total Return Index</t>
-  </si>
-  <si>
-    <t>S&amp;P BSE 250 Large MidCap Total Return Index</t>
-  </si>
-  <si>
-    <t>S&amp;P BSE 250 Large MidCap 65:35 Total Return Index</t>
-  </si>
-  <si>
-    <t>NIFTY 200 Total Return Index</t>
-  </si>
-  <si>
-    <t>576.2900</t>
-  </si>
-  <si>
-    <t>16.4500</t>
-  </si>
-  <si>
-    <t>47.2600</t>
-  </si>
-  <si>
-    <t>140.0100</t>
-  </si>
-  <si>
-    <t>311.9860</t>
-  </si>
-  <si>
-    <t>46.8060</t>
-  </si>
-  <si>
-    <t>20.7374</t>
-  </si>
-  <si>
-    <t>105.5662</t>
-  </si>
-  <si>
-    <t>148.4100</t>
-  </si>
-  <si>
-    <t>13.2839</t>
-  </si>
-  <si>
-    <t>444.1000</t>
-  </si>
-  <si>
-    <t>61.9300</t>
-  </si>
-  <si>
-    <t>49.0700</t>
-  </si>
-  <si>
-    <t>174.2210</t>
-  </si>
-  <si>
-    <t>20.6170</t>
-  </si>
-  <si>
-    <t>59.9120</t>
-  </si>
-  <si>
-    <t>13.1856</t>
-  </si>
-  <si>
-    <t>83.5170</t>
-  </si>
-  <si>
-    <t>13.3994</t>
-  </si>
-  <si>
-    <t>697.9111</t>
-  </si>
-  <si>
-    <t>153.7300</t>
-  </si>
-  <si>
-    <t>50.0447</t>
-  </si>
-  <si>
-    <t>299.9887</t>
-  </si>
-  <si>
-    <t>46.6232</t>
-  </si>
-  <si>
-    <t>301.2536</t>
-  </si>
-  <si>
-    <t>13.1200</t>
-  </si>
-  <si>
-    <t>81.1826</t>
-  </si>
-  <si>
-    <t>29.22</t>
-  </si>
-  <si>
-    <t>35.95</t>
-  </si>
-  <si>
-    <t>22.98</t>
-  </si>
-  <si>
-    <t>30.87</t>
-  </si>
-  <si>
-    <t>29.66</t>
-  </si>
-  <si>
-    <t>33.44</t>
-  </si>
-  <si>
-    <t>24.04</t>
-  </si>
-  <si>
-    <t>33.77</t>
-  </si>
-  <si>
-    <t>36.50</t>
-  </si>
-  <si>
-    <t>27.23</t>
-  </si>
-  <si>
-    <t>32.11</t>
-  </si>
-  <si>
-    <t>27.32</t>
-  </si>
-  <si>
-    <t>25.08</t>
-  </si>
-  <si>
-    <t>29.15</t>
-  </si>
-  <si>
-    <t>20.68</t>
-  </si>
-  <si>
-    <t>19.21</t>
-  </si>
-  <si>
-    <t>35.92</t>
-  </si>
-  <si>
-    <t>40.23</t>
-  </si>
-  <si>
-    <t>24.21</t>
-  </si>
-  <si>
-    <t>28.80</t>
-  </si>
-  <si>
-    <t>32.90</t>
-  </si>
-  <si>
-    <t>35.89</t>
-  </si>
-  <si>
-    <t>26.49</t>
-  </si>
-  <si>
-    <t>22.27</t>
-  </si>
-  <si>
-    <t>31.12</t>
-  </si>
-  <si>
-    <t>30.42</t>
-  </si>
-  <si>
-    <t>36.96</t>
-  </si>
-  <si>
-    <t>9.84</t>
-  </si>
-  <si>
-    <t>6.34</t>
-  </si>
-  <si>
-    <t>12.23</t>
-  </si>
-  <si>
-    <t>11.20</t>
-  </si>
-  <si>
-    <t>13.56</t>
-  </si>
-  <si>
-    <t>10.57</t>
-  </si>
-  <si>
-    <t>8.70</t>
-  </si>
-  <si>
-    <t>10.30</t>
-  </si>
-  <si>
-    <t>9.66</t>
-  </si>
-  <si>
-    <t>8.62</t>
-  </si>
-  <si>
-    <t>11.91</t>
-  </si>
-  <si>
-    <t>12.84</t>
-  </si>
-  <si>
-    <t>10.03</t>
-  </si>
-  <si>
-    <t>4.80</t>
-  </si>
-  <si>
-    <t>16.88</t>
-  </si>
-  <si>
-    <t>5.30</t>
-  </si>
-  <si>
-    <t>10.73</t>
-  </si>
-  <si>
-    <t>9.28</t>
-  </si>
-  <si>
-    <t>10.92</t>
-  </si>
-  <si>
-    <t>11.42</t>
-  </si>
-  <si>
-    <t>13.11</t>
-  </si>
-  <si>
-    <t>7.32</t>
-  </si>
-  <si>
-    <t>17.47</t>
-  </si>
-  <si>
-    <t>14.45</t>
-  </si>
-  <si>
-    <t>21.99</t>
-  </si>
-  <si>
-    <t>19.29</t>
-  </si>
-  <si>
-    <t>18.34</t>
-  </si>
-  <si>
-    <t>17.78</t>
-  </si>
-  <si>
-    <t>13.78</t>
-  </si>
-  <si>
-    <t>15.15</t>
-  </si>
-  <si>
-    <t>19.12</t>
-  </si>
-  <si>
-    <t>19.34</t>
-  </si>
-  <si>
-    <t>19.35</t>
-  </si>
-  <si>
-    <t>14.52</t>
-  </si>
-  <si>
-    <t>24.31</t>
-  </si>
-  <si>
-    <t>13.71</t>
-  </si>
-  <si>
-    <t>21.33</t>
-  </si>
-  <si>
-    <t>16.66</t>
-  </si>
-  <si>
-    <t>16.82</t>
-  </si>
-  <si>
-    <t>17.86</t>
-  </si>
-  <si>
-    <t>17.91</t>
-  </si>
-  <si>
-    <t>14.28</t>
-  </si>
-  <si>
-    <t>Baroda Multi Cap Fund</t>
-  </si>
-  <si>
-    <t>BNP Paribas Multi Cap Fund</t>
-  </si>
-  <si>
-    <t>ICICI Prudential Multicap Fund</t>
-  </si>
-  <si>
-    <t>Invesco India Multicap Fund</t>
-  </si>
-  <si>
-    <t>ITI Multi Cap Fund</t>
-  </si>
-  <si>
-    <t>Mahindra Manulife Multi Cap Badhat Yojana</t>
-  </si>
-  <si>
-    <t>Nippon India Multi Cap Fund</t>
-  </si>
-  <si>
-    <t>Principal Multi Cap Growth Fund</t>
-  </si>
-  <si>
-    <t>Quant Active Fund</t>
-  </si>
-  <si>
-    <t>Sundaram Equity Fund</t>
-  </si>
-  <si>
-    <t>Nifty 500 Multicap 50:25:25 Total Return Index</t>
-  </si>
-  <si>
-    <t>NIFTY 500 Total Return Index</t>
-  </si>
-  <si>
-    <t>S&amp;P BSE AllCap Total Return Index</t>
-  </si>
-  <si>
-    <t>S&amp;P BSE 500 Total Return Index</t>
-  </si>
-  <si>
-    <t>139.1800</t>
-  </si>
-  <si>
-    <t>66.8890</t>
-  </si>
-  <si>
-    <t>389.0500</t>
-  </si>
-  <si>
-    <t>70.0300</t>
-  </si>
-  <si>
-    <t>13.2963</t>
-  </si>
-  <si>
-    <t>16.3966</t>
-  </si>
-  <si>
-    <t>120.1925</t>
-  </si>
-  <si>
-    <t>189.6800</t>
-  </si>
-  <si>
-    <t>292.8754</t>
-  </si>
-  <si>
-    <t>13.5179</t>
-  </si>
-  <si>
-    <t>33.33</t>
-  </si>
-  <si>
-    <t>24.96</t>
-  </si>
-  <si>
-    <t>31.81</t>
-  </si>
-  <si>
-    <t>28.05</t>
-  </si>
-  <si>
-    <t>23.49</t>
-  </si>
-  <si>
-    <t>35.90</t>
-  </si>
-  <si>
-    <t>23.02</t>
-  </si>
-  <si>
-    <t>28.30</t>
-  </si>
-  <si>
-    <t>64.90</t>
-  </si>
-  <si>
-    <t>10.20</t>
-  </si>
-  <si>
-    <t>9.27</t>
-  </si>
-  <si>
-    <t>10.61</t>
-  </si>
-  <si>
-    <t>9.51</t>
-  </si>
-  <si>
-    <t>14.13</t>
-  </si>
-  <si>
-    <t>7.08</t>
-  </si>
-  <si>
-    <t>7.85</t>
-  </si>
-  <si>
-    <t>17.56</t>
-  </si>
-  <si>
-    <t>15.66</t>
-  </si>
-  <si>
-    <t>16.45</t>
-  </si>
-  <si>
-    <t>16.75</t>
-  </si>
-  <si>
-    <t>17.35</t>
-  </si>
-  <si>
-    <t>14.34</t>
-  </si>
-  <si>
-    <t>21.55</t>
-  </si>
-  <si>
-    <t>Aditya Birla Sun Life Mid Cap Fund</t>
-  </si>
-  <si>
-    <t>Axis Midcap</t>
-  </si>
-  <si>
-    <t>Baroda Midcap</t>
-  </si>
-  <si>
-    <t>BNP Paribas Midcap Fund</t>
-  </si>
-  <si>
-    <t>DSP Midcap Fund</t>
-  </si>
-  <si>
-    <t>Edelweiss Mid Cap Fund</t>
-  </si>
-  <si>
-    <t>Franklin India Prima Fund</t>
-  </si>
-  <si>
-    <t>HDFC Mid-Cap Opportunities Fund</t>
-  </si>
-  <si>
-    <t>ICICI Prudential Midcap Fund</t>
-  </si>
-  <si>
-    <t>IDBI Midcap Fund</t>
-  </si>
-  <si>
-    <t>Invesco India Mid Cap Fund</t>
-  </si>
-  <si>
-    <t>Kotak Emerging Equity Fund</t>
-  </si>
-  <si>
-    <t>L&amp;T Midcap Fund</t>
-  </si>
-  <si>
-    <t>Mahindra Manulife Mid Cap Unnati Yojana</t>
-  </si>
-  <si>
-    <t>Mirae Asset Midcap Fund</t>
-  </si>
-  <si>
-    <t>Motilal Oswal Midcap 30 Fund</t>
-  </si>
-  <si>
-    <t>Nippon India Growth Fund</t>
-  </si>
-  <si>
-    <t>PGIM India Midcap Opportunities Fund</t>
-  </si>
-  <si>
-    <t>Principal Midcap Fund</t>
-  </si>
-  <si>
-    <t>Quant Mid Cap Fund</t>
-  </si>
-  <si>
-    <t>SBI Magnum Midcap Fund</t>
-  </si>
-  <si>
-    <t>Sundaram Mid Cap Fund</t>
-  </si>
-  <si>
-    <t>Tata Midcap Growth Fund</t>
-  </si>
-  <si>
-    <t>Taurus Discovery (Midcap) Fund</t>
-  </si>
-  <si>
-    <t>UTI Mid Cap Fund</t>
-  </si>
-  <si>
-    <t>NIFTY Midcap 100 Total Return Index</t>
-  </si>
-  <si>
-    <t>S&amp;P BSE Mid Cap Total Return Index</t>
-  </si>
-  <si>
-    <t>NIFTY Midcap 150 Total Return Index</t>
-  </si>
-  <si>
-    <t>370.1800</t>
-  </si>
-  <si>
-    <t>59.0400</t>
-  </si>
-  <si>
-    <t>13.4000</t>
-  </si>
-  <si>
-    <t>51.0670</t>
-  </si>
-  <si>
-    <t>80.0580</t>
-  </si>
-  <si>
-    <t>42.6540</t>
-  </si>
-  <si>
-    <t>1,357.3466</t>
-  </si>
-  <si>
-    <t>77.5850</t>
-  </si>
-  <si>
-    <t>135.1900</t>
-  </si>
-  <si>
-    <t>15.2600</t>
-  </si>
-  <si>
-    <t>78.1400</t>
-  </si>
-  <si>
-    <t>61.8440</t>
-  </si>
-  <si>
-    <t>183.2700</t>
-  </si>
-  <si>
-    <t>13.9324</t>
-  </si>
-  <si>
-    <t>16.3770</t>
-  </si>
-  <si>
-    <t>35.2626</t>
-  </si>
-  <si>
-    <t>1,647.4630</t>
-  </si>
-  <si>
-    <t>33.4600</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
-    <t>83.5002</t>
-  </si>
-  <si>
-    <t>114.6019</t>
-  </si>
-  <si>
-    <t>604.9466</t>
-  </si>
-  <si>
-    <t>205.4382</t>
-  </si>
-  <si>
-    <t>62.2300</t>
-  </si>
-  <si>
-    <t>154.1211</t>
-  </si>
-  <si>
-    <t>28.29</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>39.44</t>
-  </si>
-  <si>
-    <t>37.66</t>
-  </si>
-  <si>
-    <t>28.98</t>
-  </si>
-  <si>
-    <t>43.51</t>
-  </si>
-  <si>
-    <t>33.65</t>
-  </si>
-  <si>
-    <t>35.18</t>
-  </si>
-  <si>
-    <t>38.90</t>
-  </si>
-  <si>
-    <t>34.57</t>
-  </si>
-  <si>
-    <t>33.25</t>
-  </si>
-  <si>
-    <t>38.42</t>
-  </si>
-  <si>
-    <t>28.26</t>
-  </si>
-  <si>
-    <t>34.01</t>
-  </si>
-  <si>
-    <t>45.44</t>
-  </si>
-  <si>
-    <t>18.74</t>
-  </si>
-  <si>
-    <t>33.64</t>
-  </si>
-  <si>
-    <t>62.90</t>
-  </si>
-  <si>
-    <t>37.50</t>
-  </si>
-  <si>
-    <t>49.63</t>
-  </si>
-  <si>
-    <t>46.42</t>
-  </si>
-  <si>
-    <t>22.86</t>
-  </si>
-  <si>
-    <t>32.39</t>
-  </si>
-  <si>
-    <t>32.88</t>
-  </si>
-  <si>
-    <t>42.36</t>
-  </si>
-  <si>
-    <t>3.94</t>
-  </si>
-  <si>
-    <t>18.36</t>
-  </si>
-  <si>
-    <t>9.35</t>
-  </si>
-  <si>
-    <t>11.50</t>
-  </si>
-  <si>
-    <t>11.11</t>
-  </si>
-  <si>
-    <t>11.70</t>
-  </si>
-  <si>
-    <t>9.30</t>
-  </si>
-  <si>
-    <t>9.23</t>
-  </si>
-  <si>
-    <t>7.97</t>
-  </si>
-  <si>
-    <t>7.81</t>
-  </si>
-  <si>
-    <t>14.75</t>
-  </si>
-  <si>
-    <t>13.45</t>
-  </si>
-  <si>
-    <t>6.81</t>
-  </si>
-  <si>
-    <t>12.77</t>
-  </si>
-  <si>
-    <t>13.59</t>
-  </si>
-  <si>
-    <t>4.36</t>
-  </si>
-  <si>
-    <t>12.35</t>
-  </si>
-  <si>
-    <t>10.12</t>
-  </si>
-  <si>
-    <t>9.44</t>
-  </si>
-  <si>
-    <t>14.48</t>
-  </si>
-  <si>
-    <t>21.95</t>
+    <t>14.39</t>
+  </si>
+  <si>
+    <t>15.32</t>
+  </si>
+  <si>
+    <t>20.46</t>
+  </si>
+  <si>
+    <t>14.49</t>
   </si>
   <si>
     <t>16.64</t>
   </si>
   <si>
-    <t>18.28</t>
-  </si>
-  <si>
-    <t>20.35</t>
-  </si>
-  <si>
-    <t>20.28</t>
-  </si>
-  <si>
-    <t>18.50</t>
-  </si>
-  <si>
-    <t>17.41</t>
-  </si>
-  <si>
-    <t>20.49</t>
-  </si>
-  <si>
-    <t>21.54</t>
-  </si>
-  <si>
-    <t>19.07</t>
-  </si>
-  <si>
-    <t>13.97</t>
-  </si>
-  <si>
-    <t>19.37</t>
-  </si>
-  <si>
-    <t>14.40</t>
-  </si>
-  <si>
-    <t>15.42</t>
-  </si>
-  <si>
-    <t>18.90</t>
-  </si>
-  <si>
-    <t>19.56</t>
-  </si>
-  <si>
-    <t>17.06</t>
-  </si>
-  <si>
-    <t>Aditya Birla Sun Life Small Cap Fund</t>
-  </si>
-  <si>
-    <t>Axis Small Cap Fund</t>
-  </si>
-  <si>
-    <t>BOI AXA Small Cap Fund</t>
-  </si>
-  <si>
-    <t>Canara Robeco Small Cap Fund</t>
-  </si>
-  <si>
-    <t>DSP Small Cap Fund</t>
-  </si>
-  <si>
-    <t>Edelweiss Small Cap Fund</t>
-  </si>
-  <si>
-    <t>Franklin India Smaller Companies Fund</t>
-  </si>
-  <si>
-    <t>HDFC Small Cap Fund</t>
-  </si>
-  <si>
-    <t>HSBC Small Cap Equity Fund</t>
-  </si>
-  <si>
-    <t>ICICI Prudential Smallcap Fund</t>
-  </si>
-  <si>
-    <t>IDBI Small Cap Fund</t>
-  </si>
-  <si>
-    <t>IDFC Emerging Businesses Fund</t>
-  </si>
-  <si>
-    <t>Invesco India Smallcap Fund</t>
-  </si>
-  <si>
-    <t>ITI Small Cap Fund</t>
-  </si>
-  <si>
-    <t>Kotak Small Cap Fund</t>
-  </si>
-  <si>
-    <t>L&amp;T Emerging Businesses Fund</t>
-  </si>
-  <si>
-    <t>Nippon India Small Cap</t>
-  </si>
-  <si>
-    <t>Principal Small Cap Fund</t>
-  </si>
-  <si>
-    <t>Quant Small Cap Fund</t>
-  </si>
-  <si>
-    <t>SBI Small Cap Fund</t>
-  </si>
-  <si>
-    <t>Sundaram Small Cap Fund</t>
-  </si>
-  <si>
-    <t>Tata Small Cap Fund</t>
-  </si>
-  <si>
-    <t>Union Small Cap Fund</t>
-  </si>
-  <si>
-    <t>NIFTY Smallcap 100 Total Return Index</t>
-  </si>
-  <si>
-    <t>NIFTY Smallcap 250 Total Return Index</t>
-  </si>
-  <si>
-    <t>S&amp;P BSE Small Cap Total Return Index</t>
-  </si>
-  <si>
-    <t>S&amp;P BSE 250 SmallCap Total Return Index</t>
-  </si>
-  <si>
-    <t>45.3691</t>
-  </si>
-  <si>
-    <t>45.9800</t>
-  </si>
-  <si>
-    <t>18.5500</t>
-  </si>
-  <si>
-    <t>15.6100</t>
-  </si>
-  <si>
-    <t>82.0340</t>
-  </si>
-  <si>
-    <t>17.7950</t>
-  </si>
-  <si>
-    <t>72.5363</t>
-  </si>
-  <si>
-    <t>57.0970</t>
-  </si>
-  <si>
-    <t>67.0756</t>
-  </si>
-  <si>
-    <t>38.1900</t>
-  </si>
-  <si>
-    <t>12.6500</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t>15.8100</t>
-  </si>
-  <si>
-    <t>12.6668</t>
-  </si>
-  <si>
-    <t>127.7180</t>
-  </si>
-  <si>
-    <t>31.0460</t>
-  </si>
-  <si>
-    <t>61.4620</t>
-  </si>
-  <si>
-    <t>16.2500</t>
-  </si>
-  <si>
-    <t>81.8327</t>
-  </si>
-  <si>
-    <t>85.7878</t>
-  </si>
-  <si>
-    <t>108.7107</t>
-  </si>
-  <si>
-    <t>15.2277</t>
-  </si>
-  <si>
-    <t>21.7900</t>
-  </si>
-  <si>
-    <t>41.30</t>
-  </si>
-  <si>
-    <t>25.22</t>
-  </si>
-  <si>
-    <t>54.58</t>
-  </si>
-  <si>
-    <t>48.95</t>
-  </si>
-  <si>
-    <t>40.98</t>
-  </si>
-  <si>
-    <t>51.22</t>
-  </si>
-  <si>
-    <t>38.24</t>
-  </si>
-  <si>
-    <t>41.13</t>
-  </si>
-  <si>
-    <t>42.16</t>
-  </si>
-  <si>
-    <t>38.62</t>
-  </si>
-  <si>
-    <t>31.22</t>
-  </si>
-  <si>
-    <t>64.52</t>
-  </si>
-  <si>
-    <t>33.42</t>
-  </si>
-  <si>
-    <t>54.27</t>
-  </si>
-  <si>
-    <t>35.06</t>
-  </si>
-  <si>
-    <t>47.41</t>
-  </si>
-  <si>
-    <t>47.73</t>
-  </si>
-  <si>
-    <t>94.79</t>
-  </si>
-  <si>
-    <t>44.30</t>
-  </si>
-  <si>
-    <t>31.62</t>
-  </si>
-  <si>
-    <t>40.94</t>
-  </si>
-  <si>
-    <t>40.76</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>15.86</t>
-  </si>
-  <si>
-    <t>6.21</t>
-  </si>
-  <si>
-    <t>4.01</t>
-  </si>
-  <si>
-    <t>5.79</t>
-  </si>
-  <si>
-    <t>1.58</t>
-  </si>
-  <si>
-    <t>8.37</t>
-  </si>
-  <si>
-    <t>5.03</t>
-  </si>
-  <si>
-    <t>14.62</t>
-  </si>
-  <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>17.27</t>
-  </si>
-  <si>
-    <t>11.28</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>8.38</t>
-  </si>
-  <si>
-    <t>15.57</t>
-  </si>
-  <si>
-    <t>20.54</t>
-  </si>
-  <si>
-    <t>15.28</t>
-  </si>
-  <si>
-    <t>19.98</t>
-  </si>
-  <si>
-    <t>16.95</t>
-  </si>
-  <si>
-    <t>22.12</t>
-  </si>
-  <si>
-    <t>19.52</t>
-  </si>
-  <si>
-    <t>22.35</t>
-  </si>
-  <si>
-    <t>12.80</t>
-  </si>
-  <si>
-    <t>23.59</t>
-  </si>
-  <si>
-    <t>13.77</t>
-  </si>
-  <si>
-    <t>16.36</t>
-  </si>
-  <si>
-    <t>Aditya Birla Sun Life Pure Value Fund</t>
-  </si>
-  <si>
-    <t>HDFC Capital Builder Value Fund</t>
-  </si>
-  <si>
-    <t>ICICI Prudential Value Discovery Fund</t>
-  </si>
-  <si>
-    <t>IDBI Long Term Value Fund</t>
-  </si>
-  <si>
-    <t>IDFC Sterling Value Fund</t>
-  </si>
-  <si>
-    <t>Indiabulls Value Fund</t>
-  </si>
-  <si>
-    <t>JM Value Fund</t>
-  </si>
-  <si>
-    <t>L&amp;T India Value Fund</t>
-  </si>
-  <si>
-    <t>Nippon India Value Fund</t>
-  </si>
-  <si>
-    <t>Quantum Long Term Equity Value Fund</t>
-  </si>
-  <si>
-    <t>Tata Equity PE Fund</t>
-  </si>
-  <si>
-    <t>Templeton India Value Fund</t>
-  </si>
-  <si>
-    <t>Union Value Discovery Fund</t>
-  </si>
-  <si>
-    <t>UTI Value Opportunities Fund</t>
-  </si>
-  <si>
-    <t>S&amp;P BSE Enhanced Value Total Return Index</t>
-  </si>
-  <si>
-    <t>Nifty 500 Value 50 Total Return Index</t>
-  </si>
-  <si>
-    <t>S&amp;P BSE 400 MidSmallCap Total Return Index</t>
-  </si>
-  <si>
-    <t>S&amp;P BSE 200 Total Return Index</t>
-  </si>
-  <si>
-    <t>63.5217</t>
-  </si>
-  <si>
-    <t>375.3670</t>
-  </si>
-  <si>
-    <t>203.5300</t>
-  </si>
-  <si>
-    <t>13.3700</t>
-  </si>
-  <si>
-    <t>68.5200</t>
-  </si>
-  <si>
-    <t>15.5905</t>
-  </si>
-  <si>
-    <t>44.9715</t>
-  </si>
-  <si>
-    <t>48.0130</t>
-  </si>
-  <si>
-    <t>101.4209</t>
-  </si>
-  <si>
-    <t>65.7100</t>
-  </si>
-  <si>
-    <t>175.6743</t>
-  </si>
-  <si>
-    <t>339.5654</t>
-  </si>
-  <si>
-    <t>13.9300</t>
-  </si>
-  <si>
-    <t>86.9490</t>
-  </si>
-  <si>
-    <t>39.41</t>
-  </si>
-  <si>
-    <t>32.68</t>
-  </si>
-  <si>
-    <t>45.98</t>
-  </si>
-  <si>
-    <t>29.68</t>
-  </si>
-  <si>
-    <t>39.13</t>
-  </si>
-  <si>
-    <t>27.81</t>
-  </si>
-  <si>
-    <t>28.59</t>
-  </si>
-  <si>
-    <t>31.30</t>
-  </si>
-  <si>
-    <t>34.30</t>
-  </si>
-  <si>
-    <t>34.98</t>
-  </si>
-  <si>
-    <t>29.34</t>
-  </si>
-  <si>
-    <t>46.56</t>
-  </si>
-  <si>
-    <t>38.88</t>
-  </si>
-  <si>
-    <t>32.04</t>
-  </si>
-  <si>
-    <t>-1.92</t>
-  </si>
-  <si>
-    <t>6.96</t>
-  </si>
-  <si>
-    <t>10.43</t>
-  </si>
-  <si>
-    <t>5.19</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>6.87</t>
-  </si>
-  <si>
-    <t>9.90</t>
-  </si>
-  <si>
-    <t>7.45</t>
-  </si>
-  <si>
-    <t>6.82</t>
-  </si>
-  <si>
-    <t>12.41</t>
-  </si>
-  <si>
-    <t>13.29</t>
-  </si>
-  <si>
-    <t>15.20</t>
-  </si>
-  <si>
-    <t>18.13</t>
-  </si>
-  <si>
-    <t>20.29</t>
-  </si>
-  <si>
-    <t>17.03</t>
-  </si>
-  <si>
-    <t>17.92</t>
-  </si>
-  <si>
-    <t>13.83</t>
-  </si>
-  <si>
-    <t>18.85</t>
-  </si>
-  <si>
-    <t>16.08</t>
-  </si>
-  <si>
-    <t>16.72</t>
-  </si>
-  <si>
-    <t>Aditya Birla Sun Life Tax Relief 96 Fund</t>
-  </si>
-  <si>
-    <t>Axis Long Term Equity Fund</t>
-  </si>
-  <si>
-    <t>Baroda ELSS 96 Fund</t>
-  </si>
-  <si>
-    <t>BNP Paribas Long Term Equity Fund</t>
-  </si>
-  <si>
-    <t>BOI AXA Tax Advantage Fund</t>
-  </si>
-  <si>
-    <t>Canara Robeco Equity Tax Saver Fund</t>
-  </si>
-  <si>
-    <t>DSP Tax Saver Fund</t>
-  </si>
-  <si>
-    <t>Edelweiss Long Term Equity Fund (Tax Savings)</t>
-  </si>
-  <si>
-    <t>Essel Long Term Advantage Fund</t>
-  </si>
-  <si>
-    <t>Franklin India Taxshield Fund</t>
-  </si>
-  <si>
-    <t>HDFC Taxsaver Fund</t>
-  </si>
-  <si>
-    <t>HSBC Tax Saver Equity Fund</t>
-  </si>
-  <si>
-    <t>ICICI Prudential Long Term Equity Fund (Tax Saving)</t>
-  </si>
-  <si>
-    <t>IDBI Equity Advantage Fund</t>
-  </si>
-  <si>
-    <t>IDFC Tax Advantage (ELSS) Fund</t>
-  </si>
-  <si>
-    <t>Indiabulls Tax Savings Fund</t>
-  </si>
-  <si>
-    <t>Invesco India Tax Plan Fund</t>
-  </si>
-  <si>
-    <t>ITI Long Term Equity Fund</t>
-  </si>
-  <si>
-    <t>JM Tax Gain Fund</t>
-  </si>
-  <si>
-    <t>Kotak Tax Saver Fund</t>
-  </si>
-  <si>
-    <t>LIC MF Tax Plan Fund</t>
-  </si>
-  <si>
-    <t>L&amp;T Tax Advantage Fund</t>
-  </si>
-  <si>
-    <t>Mahindra Manulife ELSS Kar Bachat Yojana</t>
-  </si>
-  <si>
-    <t>Mirae Asset Tax Saver Fund</t>
-  </si>
-  <si>
-    <t>Motilal Oswal Long Term Equity Fund</t>
-  </si>
-  <si>
-    <t>Nippon India Tax Saver (ELSS) Fund</t>
-  </si>
-  <si>
-    <t>Parag Parikh Tax Saver Fund</t>
-  </si>
-  <si>
-    <t>PGIM India Long Term Equity Fund</t>
-  </si>
-  <si>
-    <t>Principal Tax Savings Fund</t>
-  </si>
-  <si>
-    <t>Quant Tax Plan</t>
-  </si>
-  <si>
-    <t>Quantum Tax Saving Fund</t>
-  </si>
-  <si>
-    <t>SBI Long Term Equity Fund</t>
-  </si>
-  <si>
-    <t>Shriram Long Term Equity Fund</t>
-  </si>
-  <si>
-    <t>Sundaram Diversified Equity Fund</t>
-  </si>
-  <si>
-    <t>Tata India Tax Savings Fund</t>
-  </si>
-  <si>
-    <t>Taurus Tax Shield Fund</t>
-  </si>
-  <si>
-    <t>Union Long Term Equity</t>
-  </si>
-  <si>
-    <t>UTI Long Term Equity Fund</t>
-  </si>
-  <si>
-    <t>41.3500</t>
-  </si>
-  <si>
-    <t>65.7906</t>
-  </si>
-  <si>
-    <t>42.3000</t>
-  </si>
-  <si>
-    <t>54.1360</t>
-  </si>
-  <si>
-    <t>85.4800</t>
-  </si>
-  <si>
-    <t>99.3300</t>
-  </si>
-  <si>
-    <t>68.9080</t>
-  </si>
-  <si>
-    <t>64.6000</t>
-  </si>
-  <si>
-    <t>18.7643</t>
-  </si>
-  <si>
-    <t>750.4978</t>
-  </si>
-  <si>
-    <t>612.3830</t>
-  </si>
-  <si>
-    <t>48.5551</t>
-  </si>
-  <si>
-    <t>517.6800</t>
-  </si>
-  <si>
-    <t>34.6000</t>
-  </si>
-  <si>
-    <t>81.1400</t>
-  </si>
-  <si>
-    <t>11.9300</t>
-  </si>
-  <si>
-    <t>75.2300</t>
-  </si>
-  <si>
-    <t>13.1182</t>
-  </si>
-  <si>
-    <t>25.3089</t>
-  </si>
-  <si>
-    <t>64.0340</t>
-  </si>
-  <si>
-    <t>87.5752</t>
-  </si>
-  <si>
-    <t>69.0430</t>
-  </si>
-  <si>
-    <t>15.9521</t>
-  </si>
-  <si>
-    <t>27.0710</t>
-  </si>
-  <si>
-    <t>23.7512</t>
-  </si>
-  <si>
-    <t>65.5417</t>
-  </si>
-  <si>
-    <t>14.5460</t>
-  </si>
-  <si>
-    <t>19.8100</t>
-  </si>
-  <si>
-    <t>274.2200</t>
-  </si>
-  <si>
-    <t>158.9965</t>
-  </si>
-  <si>
-    <t>65.2500</t>
-  </si>
-  <si>
-    <t>189.9269</t>
-  </si>
-  <si>
-    <t>13.5731</t>
-  </si>
-  <si>
-    <t>124.9727</t>
-  </si>
-  <si>
-    <t>130.4372</t>
-  </si>
-  <si>
-    <t>100.8700</t>
-  </si>
-  <si>
-    <t>34.5300</t>
-  </si>
-  <si>
-    <t>125.2110</t>
-  </si>
-  <si>
-    <t>23.32</t>
-  </si>
-  <si>
-    <t>24.39</t>
-  </si>
-  <si>
-    <t>30.03</t>
-  </si>
-  <si>
-    <t>26.29</t>
-  </si>
-  <si>
-    <t>36.46</t>
-  </si>
-  <si>
-    <t>32.67</t>
-  </si>
-  <si>
-    <t>27.17</t>
-  </si>
-  <si>
-    <t>20.57</t>
-  </si>
-  <si>
-    <t>31.26</t>
-  </si>
-  <si>
-    <t>25.33</t>
-  </si>
-  <si>
-    <t>22.37</t>
-  </si>
-  <si>
-    <t>18.05</t>
-  </si>
-  <si>
-    <t>42.78</t>
-  </si>
-  <si>
-    <t>22.99</t>
-  </si>
-  <si>
-    <t>26.82</t>
-  </si>
-  <si>
-    <t>30.37</t>
-  </si>
-  <si>
-    <t>29.37</t>
-  </si>
-  <si>
-    <t>28.41</t>
-  </si>
-  <si>
-    <t>14.60</t>
-  </si>
-  <si>
-    <t>24.87</t>
-  </si>
-  <si>
-    <t>31.61</t>
-  </si>
-  <si>
-    <t>41.78</t>
-  </si>
-  <si>
-    <t>19.59</t>
-  </si>
-  <si>
-    <t>25.71</t>
-  </si>
-  <si>
-    <t>37.78</t>
-  </si>
-  <si>
-    <t>35.96</t>
-  </si>
-  <si>
-    <t>33.67</t>
-  </si>
-  <si>
-    <t>74.55</t>
-  </si>
-  <si>
-    <t>35.04</t>
-  </si>
-  <si>
-    <t>33.28</t>
-  </si>
-  <si>
-    <t>22.29</t>
-  </si>
-  <si>
-    <t>22.95</t>
-  </si>
-  <si>
-    <t>29.47</t>
-  </si>
-  <si>
-    <t>33.11</t>
-  </si>
-  <si>
-    <t>8.42</t>
-  </si>
-  <si>
-    <t>14.69</t>
-  </si>
-  <si>
-    <t>7.14</t>
-  </si>
-  <si>
-    <t>12.33</t>
-  </si>
-  <si>
-    <t>12.76</t>
-  </si>
-  <si>
-    <t>17.73</t>
-  </si>
-  <si>
-    <t>12.99</t>
-  </si>
-  <si>
-    <t>9.24</t>
-  </si>
-  <si>
-    <t>10.23</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>7.33</t>
-  </si>
-  <si>
-    <t>11.66</t>
-  </si>
-  <si>
-    <t>7.47</t>
-  </si>
-  <si>
-    <t>9.65</t>
-  </si>
-  <si>
-    <t>5.71</t>
-  </si>
-  <si>
-    <t>12.94</t>
-  </si>
-  <si>
-    <t>13.57</t>
-  </si>
-  <si>
-    <t>13.53</t>
-  </si>
-  <si>
-    <t>5.95</t>
-  </si>
-  <si>
-    <t>9.13</t>
-  </si>
-  <si>
-    <t>16.98</t>
-  </si>
-  <si>
-    <t>8.28</t>
-  </si>
-  <si>
-    <t>-0.24</t>
-  </si>
-  <si>
-    <t>7.63</t>
-  </si>
-  <si>
-    <t>19.48</t>
-  </si>
-  <si>
-    <t>7.48</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
-    <t>11.93</t>
-  </si>
-  <si>
-    <t>16.27</t>
-  </si>
-  <si>
-    <t>18.53</t>
-  </si>
-  <si>
-    <t>13.98</t>
-  </si>
-  <si>
-    <t>15.90</t>
-  </si>
-  <si>
-    <t>20.73</t>
-  </si>
-  <si>
-    <t>20.62</t>
-  </si>
-  <si>
-    <t>19.61</t>
-  </si>
-  <si>
-    <t>15.34</t>
-  </si>
-  <si>
-    <t>14.53</t>
-  </si>
-  <si>
-    <t>14.25</t>
-  </si>
-  <si>
-    <t>16.20</t>
-  </si>
-  <si>
-    <t>16.46</t>
-  </si>
-  <si>
-    <t>13.68</t>
-  </si>
-  <si>
-    <t>19.39</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>20.11</t>
-  </si>
-  <si>
-    <t>18.94</t>
-  </si>
-  <si>
-    <t>16.37</t>
-  </si>
-  <si>
-    <t>16.02</t>
-  </si>
-  <si>
-    <t>25.11</t>
-  </si>
-  <si>
-    <t>19.02</t>
-  </si>
-  <si>
-    <t>17.02</t>
-  </si>
-  <si>
-    <t>18.18</t>
-  </si>
-  <si>
-    <t>13.95</t>
-  </si>
-  <si>
-    <t>15.05</t>
-  </si>
-  <si>
-    <t>18.82</t>
-  </si>
-  <si>
-    <t>17.09</t>
-  </si>
-  <si>
-    <t>15.38</t>
-  </si>
-  <si>
-    <t>17.01</t>
-  </si>
-  <si>
-    <t>Invesco India Contra Fund</t>
-  </si>
-  <si>
-    <t>Kotak India EQ Contra Fund</t>
-  </si>
-  <si>
-    <t>SBI Contra Fund</t>
-  </si>
-  <si>
-    <t>70.4600</t>
-  </si>
-  <si>
-    <t>76.9180</t>
-  </si>
-  <si>
-    <t>159.6660</t>
-  </si>
-  <si>
-    <t>32.44</t>
-  </si>
-  <si>
-    <t>54.41</t>
-  </si>
-  <si>
-    <t>12.19</t>
-  </si>
-  <si>
-    <t>14.44</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>20.70</t>
-  </si>
-  <si>
-    <t>20.03</t>
-  </si>
-  <si>
-    <t>Aditya Birla Sun Life Dividend Yield Fund</t>
-  </si>
-  <si>
-    <t>ICICI Prudential Dividend Yield Equity Fund</t>
-  </si>
-  <si>
-    <t>IDBI Dividend Yield Fund</t>
-  </si>
-  <si>
-    <t>Principal Dividend Yield Fund</t>
-  </si>
-  <si>
-    <t>Templeton India Equity Income Fund</t>
-  </si>
-  <si>
-    <t>UTI Dividend Yield Fund</t>
-  </si>
-  <si>
-    <t>NIFTY Dividend Opportunities 50 Total Return Index</t>
-  </si>
-  <si>
-    <t>203.8100</t>
-  </si>
-  <si>
-    <t>20.7800</t>
-  </si>
-  <si>
-    <t>14.1200</t>
-  </si>
-  <si>
-    <t>71.6200</t>
-  </si>
-  <si>
-    <t>65.5628</t>
-  </si>
-  <si>
-    <t>85.5647</t>
-  </si>
-  <si>
-    <t>24.85</t>
-  </si>
-  <si>
-    <t>38.72</t>
-  </si>
-  <si>
-    <t>29.90</t>
-  </si>
-  <si>
-    <t>31.75</t>
-  </si>
-  <si>
-    <t>44.44</t>
-  </si>
-  <si>
-    <t>31.35</t>
-  </si>
-  <si>
-    <t>3.34</t>
-  </si>
-  <si>
-    <t>4.07</t>
-  </si>
-  <si>
-    <t>10.15</t>
-  </si>
-  <si>
-    <t>10.07</t>
-  </si>
-  <si>
-    <t>9.22</t>
-  </si>
-  <si>
-    <t>11.68</t>
-  </si>
-  <si>
-    <t>15.10</t>
-  </si>
-  <si>
-    <t>17.45</t>
-  </si>
-  <si>
-    <t>16.01</t>
-  </si>
-  <si>
-    <t>Aditya Birla Sun Life Focused Equity Fund</t>
-  </si>
-  <si>
-    <t>Axis Focused 25</t>
-  </si>
-  <si>
-    <t>BNP Paribas Focused 25 Equity Fund</t>
-  </si>
-  <si>
-    <t>DSP Focus Fund</t>
-  </si>
-  <si>
-    <t>Franklin India Focused Equity Fund</t>
-  </si>
-  <si>
-    <t>HDFC Focused 30 Fund</t>
-  </si>
-  <si>
-    <t>ICICI Prudential Focused Equity Fund</t>
-  </si>
-  <si>
-    <t>IDBI Focused 30 Equity Fund</t>
-  </si>
-  <si>
-    <t>IDFC Focused Equity Fund</t>
-  </si>
-  <si>
-    <t>IIFL Focused Equity Fund</t>
-  </si>
-  <si>
-    <t>JM Core 11 Fund</t>
-  </si>
-  <si>
-    <t>Kotak Focused Equity Fund</t>
-  </si>
-  <si>
-    <t>L&amp;T Focused Equity Fund</t>
-  </si>
-  <si>
-    <t>Mirae Asset Focused Fund</t>
-  </si>
-  <si>
-    <t>Motilal Oswal Focused 25 Fund</t>
-  </si>
-  <si>
-    <t>Nippon India Focused Equity Fund</t>
-  </si>
-  <si>
-    <t>Principal Focused Multicap Fund</t>
-  </si>
-  <si>
-    <t>Quant Focused Fund</t>
-  </si>
-  <si>
-    <t>SBI Focused Equity Fund</t>
-  </si>
-  <si>
-    <t>Sundaram Select Focus Fund</t>
-  </si>
-  <si>
-    <t>Tata Focused Equity Fund</t>
-  </si>
-  <si>
-    <t>Union Focused Fund</t>
-  </si>
-  <si>
-    <t>81.1770</t>
-  </si>
-  <si>
-    <t>41.3400</t>
-  </si>
-  <si>
-    <t>12.7160</t>
-  </si>
-  <si>
-    <t>30.6270</t>
-  </si>
-  <si>
-    <t>57.9435</t>
-  </si>
-  <si>
-    <t>95.7880</t>
-  </si>
-  <si>
-    <t>42.7200</t>
-  </si>
-  <si>
-    <t>12.9700</t>
-  </si>
-  <si>
-    <t>51.5300</t>
-  </si>
-  <si>
-    <t>25.7079</t>
-  </si>
-  <si>
-    <t>11.1133</t>
-  </si>
-  <si>
-    <t>13.8060</t>
-  </si>
-  <si>
-    <t>13.9470</t>
-  </si>
-  <si>
-    <t>16.0100</t>
-  </si>
-  <si>
-    <t>32.5689</t>
-  </si>
-  <si>
-    <t>69.0542</t>
-  </si>
-  <si>
-    <t>94.3500</t>
-  </si>
-  <si>
-    <t>43.2063</t>
-  </si>
-  <si>
-    <t>200.2783</t>
-  </si>
-  <si>
-    <t>242.3636</t>
-  </si>
-  <si>
-    <t>12.5792</t>
-  </si>
-  <si>
-    <t>14.7600</t>
-  </si>
-  <si>
-    <t>26.41</t>
-  </si>
-  <si>
-    <t>24.29</t>
-  </si>
-  <si>
-    <t>23.77</t>
-  </si>
-  <si>
-    <t>20.71</t>
-  </si>
-  <si>
-    <t>36.74</t>
-  </si>
-  <si>
-    <t>29.42</t>
-  </si>
-  <si>
-    <t>46.70</t>
-  </si>
-  <si>
-    <t>27.16</t>
-  </si>
-  <si>
-    <t>23.31</t>
-  </si>
-  <si>
-    <t>11.18</t>
-  </si>
-  <si>
-    <t>23.81</t>
-  </si>
-  <si>
-    <t>41.21</t>
-  </si>
-  <si>
-    <t>26.83</t>
-  </si>
-  <si>
-    <t>45.23</t>
-  </si>
-  <si>
-    <t>31.24</t>
-  </si>
-  <si>
-    <t>46.28</t>
-  </si>
-  <si>
-    <t>21.13</t>
-  </si>
-  <si>
-    <t>23.79</t>
-  </si>
-  <si>
-    <t>31.48</t>
-  </si>
-  <si>
-    <t>34.43</t>
-  </si>
-  <si>
-    <t>10.83</t>
-  </si>
-  <si>
-    <t>14.88</t>
-  </si>
-  <si>
-    <t>9.01</t>
-  </si>
-  <si>
-    <t>9.56</t>
-  </si>
-  <si>
-    <t>11.76</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>12.05</t>
-  </si>
-  <si>
-    <t>8.74</t>
-  </si>
-  <si>
-    <t>7.18</t>
-  </si>
-  <si>
-    <t>19.87</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>12.89</t>
-  </si>
-  <si>
-    <t>14.57</t>
-  </si>
-  <si>
-    <t>13.06</t>
-  </si>
-  <si>
-    <t>13.03</t>
-  </si>
-  <si>
-    <t>16.34</t>
-  </si>
-  <si>
-    <t>21.44</t>
-  </si>
-  <si>
-    <t>15.21</t>
-  </si>
-  <si>
-    <t>18.14</t>
-  </si>
-  <si>
-    <t>14.36</t>
-  </si>
-  <si>
-    <t>16.92</t>
-  </si>
-  <si>
-    <t>22.16</t>
-  </si>
-  <si>
-    <t>18.83</t>
-  </si>
-  <si>
-    <t>17.72</t>
-  </si>
-  <si>
-    <t>19.30</t>
-  </si>
-  <si>
-    <t>18.81</t>
-  </si>
-  <si>
-    <t>18.88</t>
-  </si>
-  <si>
-    <t>17.31</t>
+    <t>12.59</t>
+  </si>
+  <si>
+    <t>15.44</t>
+  </si>
+  <si>
+    <t>16.42</t>
+  </si>
+  <si>
+    <t>21.29</t>
+  </si>
+  <si>
+    <t>16.86</t>
+  </si>
+  <si>
+    <t>17.50</t>
+  </si>
+  <si>
+    <t>18.38</t>
+  </si>
+  <si>
+    <t>17.48</t>
+  </si>
+  <si>
+    <t>17.80</t>
+  </si>
+  <si>
+    <t>16.41</t>
   </si>
 </sst>
 </file>
@@ -3558,7 +3576,7 @@
         <v>115</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3581,7 +3599,7 @@
         <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3627,7 +3645,7 @@
         <v>118</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3650,7 +3668,7 @@
         <v>119</v>
       </c>
       <c r="G24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3673,7 +3691,7 @@
         <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3696,7 +3714,7 @@
         <v>121</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3719,7 +3737,7 @@
         <v>122</v>
       </c>
       <c r="G27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3742,7 +3760,7 @@
         <v>123</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3788,7 +3806,7 @@
         <v>125</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3829,22 +3847,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="E2" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F2" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="G2" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3852,22 +3870,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="E3" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="F3" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="G3" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3875,19 +3893,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="E4" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="F4" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="G4" t="s">
         <v>117</v>
@@ -3898,22 +3916,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D5" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="E5" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="F5" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="G5" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3921,22 +3939,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D6" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="E6" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="F6" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="G6" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3944,22 +3962,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D7" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="E7" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="F7" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="G7" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3967,22 +3985,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D8" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="E8" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="F8" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="G8" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3990,19 +4008,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="E9" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="F9" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="G9" t="s">
         <v>117</v>
@@ -4013,22 +4031,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D10" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="E10" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="F10" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>904</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4036,22 +4054,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D11" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>871</v>
       </c>
       <c r="F11" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="G11" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4059,22 +4077,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="E12" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="F12" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="G12" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4082,16 +4100,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="E13" t="s">
-        <v>575</v>
+        <v>873</v>
       </c>
       <c r="F13" t="s">
         <v>117</v>
@@ -4105,16 +4123,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D14" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="E14" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="F14" t="s">
         <v>117</v>
@@ -4128,16 +4146,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="E15" t="s">
-        <v>869</v>
+        <v>236</v>
       </c>
       <c r="F15" t="s">
         <v>117</v>
@@ -4151,22 +4169,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="E16" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="F16" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="G16" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4174,22 +4192,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D17" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="E17" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>895</v>
       </c>
       <c r="G17" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4197,22 +4215,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D18" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="E18" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="F18" t="s">
-        <v>890</v>
+        <v>413</v>
       </c>
       <c r="G18" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4220,22 +4238,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="E19" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>896</v>
       </c>
       <c r="G19" t="s">
-        <v>755</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4243,22 +4261,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C20" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D20" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E20" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="F20" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="G20" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4266,22 +4284,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="E21" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="F21" t="s">
-        <v>892</v>
+        <v>411</v>
       </c>
       <c r="G21" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4289,16 +4307,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D22" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="E22" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="F22" t="s">
         <v>117</v>
@@ -4312,16 +4330,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D23" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E23" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -4368,22 +4386,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4391,16 +4409,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
         <v>117</v>
@@ -4414,22 +4432,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4437,22 +4455,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4460,22 +4478,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4483,22 +4501,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4506,22 +4524,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4529,22 +4547,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4552,22 +4570,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4575,16 +4593,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F11" t="s">
         <v>117</v>
@@ -4598,22 +4616,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G12" t="s">
-        <v>140</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4621,22 +4639,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G13" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4644,22 +4662,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F14" t="s">
-        <v>248</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4667,22 +4685,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4690,22 +4708,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4713,22 +4731,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4736,16 +4754,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F18" t="s">
         <v>117</v>
@@ -4759,22 +4777,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4782,16 +4800,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -4805,22 +4823,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G21" t="s">
-        <v>273</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4828,22 +4846,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F22" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4851,22 +4869,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G23" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4874,22 +4892,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4897,22 +4915,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4920,22 +4938,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4943,16 +4961,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F27" t="s">
         <v>117</v>
@@ -4966,22 +4984,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" t="s">
         <v>179</v>
       </c>
-      <c r="C28" t="s">
-        <v>180</v>
-      </c>
       <c r="D28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -5022,22 +5040,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G2" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5045,22 +5063,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5068,22 +5086,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5091,22 +5109,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" t="s">
         <v>292</v>
       </c>
-      <c r="D5" t="s">
-        <v>297</v>
-      </c>
       <c r="E5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5114,16 +5132,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
         <v>117</v>
@@ -5137,19 +5155,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" t="s">
         <v>285</v>
       </c>
-      <c r="C7" t="s">
-        <v>290</v>
-      </c>
       <c r="D7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G7" t="s">
         <v>117</v>
@@ -5160,22 +5178,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G8" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5183,22 +5201,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E9" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5206,22 +5224,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G10" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5229,16 +5247,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>308</v>
       </c>
       <c r="F11" t="s">
         <v>117</v>
@@ -5285,22 +5303,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G2" t="s">
-        <v>424</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5308,22 +5326,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E3" t="s">
-        <v>381</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5331,22 +5349,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G4" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5354,22 +5372,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E5" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G5" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5377,22 +5395,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D6" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E6" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F6" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="G6" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5400,22 +5418,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F7" t="s">
-        <v>410</v>
+        <v>319</v>
       </c>
       <c r="G7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5423,22 +5441,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E8" t="s">
-        <v>386</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G8" t="s">
-        <v>324</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5446,22 +5464,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E9" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F9" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5469,22 +5487,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E10" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F10" t="s">
-        <v>413</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5492,19 +5510,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C11" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E11" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F11" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G11" t="s">
         <v>117</v>
@@ -5515,22 +5533,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E12" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F12" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G12" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5538,22 +5556,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C13" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D13" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E13" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F13" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G13" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5561,22 +5579,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C14" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D14" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E14" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F14" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G14" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5584,19 +5602,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C15" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D15" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E15" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F15" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G15" t="s">
         <v>117</v>
@@ -5607,16 +5625,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C16" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D16" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E16" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F16" t="s">
         <v>117</v>
@@ -5630,22 +5648,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C17" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D17" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E17" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F17" t="s">
-        <v>238</v>
+        <v>410</v>
       </c>
       <c r="G17" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5653,22 +5671,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C18" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D18" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E18" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>411</v>
       </c>
       <c r="G18" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5676,22 +5694,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C19" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D19" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E19" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>412</v>
       </c>
       <c r="G19" t="s">
-        <v>225</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5699,16 +5717,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C20" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D20" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E20" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -5722,22 +5740,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C21" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D21" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E21" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G21" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5745,22 +5763,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C22" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D22" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E22" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F22" t="s">
-        <v>245</v>
+        <v>414</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5768,22 +5786,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C23" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D23" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E23" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F23" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G23" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5791,22 +5809,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C24" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D24" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E24" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F24" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G24" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5814,22 +5832,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D25" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E25" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5837,22 +5855,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C26" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D26" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E26" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F26" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G26" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -5893,22 +5911,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5916,22 +5934,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5939,16 +5957,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F4" t="s">
         <v>117</v>
@@ -5962,16 +5980,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F5" t="s">
         <v>117</v>
@@ -5985,22 +6003,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G6" t="s">
-        <v>260</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6008,16 +6026,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F7" t="s">
         <v>117</v>
@@ -6031,22 +6049,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C8" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G8" t="s">
-        <v>530</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6054,22 +6072,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6077,22 +6095,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G10" t="s">
-        <v>267</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6100,19 +6118,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D11" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G11" t="s">
         <v>532</v>
@@ -6123,19 +6141,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C12" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D12" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G12" t="s">
         <v>117</v>
@@ -6146,16 +6164,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D13" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E13" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F13" t="s">
         <v>117</v>
@@ -6169,16 +6187,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D14" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E14" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F14" t="s">
         <v>117</v>
@@ -6192,16 +6210,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C15" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D15" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E15" t="s">
-        <v>231</v>
+        <v>502</v>
       </c>
       <c r="F15" t="s">
         <v>117</v>
@@ -6215,19 +6233,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C16" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D16" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F16" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G16" t="s">
         <v>533</v>
@@ -6238,19 +6256,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C17" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D17" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G17" t="s">
         <v>534</v>
@@ -6261,19 +6279,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C18" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D18" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>522</v>
       </c>
       <c r="G18" t="s">
         <v>535</v>
@@ -6284,16 +6302,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C19" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D19" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E19" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -6307,22 +6325,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C20" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D20" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E20" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G20" t="s">
-        <v>536</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6330,22 +6348,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C21" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D21" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E21" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6353,22 +6371,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>459</v>
+      </c>
+      <c r="C22" t="s">
         <v>462</v>
       </c>
-      <c r="C22" t="s">
-        <v>465</v>
-      </c>
       <c r="D22" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6376,16 +6394,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C23" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D23" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
@@ -6399,22 +6417,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C24" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D24" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E24" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G24" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -6455,22 +6473,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6478,22 +6496,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6501,22 +6519,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6524,16 +6542,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F5" t="s">
         <v>117</v>
@@ -6547,22 +6565,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6570,22 +6588,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F7" t="s">
-        <v>590</v>
+        <v>517</v>
       </c>
       <c r="G7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6593,22 +6611,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F8" t="s">
-        <v>407</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6616,22 +6634,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6639,22 +6657,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6662,22 +6680,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F11" t="s">
-        <v>593</v>
+        <v>405</v>
       </c>
       <c r="G11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6685,22 +6703,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F12" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="G12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6708,22 +6726,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F13" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6731,16 +6749,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C14" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F14" t="s">
         <v>117</v>
@@ -6754,22 +6772,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F15" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -6810,22 +6828,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F2" t="s">
         <v>716</v>
       </c>
       <c r="G2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6833,22 +6851,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F3" t="s">
         <v>717</v>
       </c>
       <c r="G3" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6856,22 +6874,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F4" t="s">
         <v>718</v>
       </c>
       <c r="G4" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6879,22 +6897,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F5" t="s">
         <v>719</v>
       </c>
       <c r="G5" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6902,22 +6920,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F6" t="s">
         <v>720</v>
       </c>
       <c r="G6" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6925,22 +6943,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>685</v>
       </c>
       <c r="F7" t="s">
         <v>721</v>
       </c>
       <c r="G7" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6948,22 +6966,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E8" t="s">
-        <v>687</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
         <v>722</v>
       </c>
       <c r="G8" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6971,22 +6989,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E9" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F9" t="s">
         <v>723</v>
       </c>
       <c r="G9" t="s">
-        <v>751</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6994,22 +7012,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E10" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F10" t="s">
         <v>724</v>
       </c>
       <c r="G10" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7017,22 +7035,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>725</v>
       </c>
       <c r="G11" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7040,22 +7058,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E12" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F12" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G12" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7063,22 +7081,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E13" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F13" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G13" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7086,22 +7104,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E14" t="s">
-        <v>403</v>
+        <v>691</v>
       </c>
       <c r="F14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G14" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7109,22 +7127,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F15" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G15" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7132,22 +7150,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D16" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F16" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G16" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -7155,19 +7173,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F17" t="s">
-        <v>730</v>
+        <v>516</v>
       </c>
       <c r="G17" t="s">
         <v>117</v>
@@ -7178,22 +7196,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F18" t="s">
-        <v>731</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -7201,16 +7219,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C19" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -7224,22 +7242,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C20" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D20" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F20" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G20" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7247,22 +7265,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D21" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F21" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G21" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -7270,22 +7288,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C22" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F22" t="s">
-        <v>111</v>
+        <v>733</v>
       </c>
       <c r="G22" t="s">
-        <v>761</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7293,22 +7311,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D23" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F23" t="s">
         <v>734</v>
       </c>
       <c r="G23" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -7316,19 +7334,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E24" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F24" t="s">
-        <v>735</v>
+        <v>418</v>
       </c>
       <c r="G24" t="s">
         <v>117</v>
@@ -7339,22 +7357,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E25" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F25" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G25" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -7362,22 +7380,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C26" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E26" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F26" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G26" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -7385,22 +7403,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E27" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G27" t="s">
-        <v>257</v>
+        <v>766</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7408,16 +7426,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C28" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F28" t="s">
         <v>117</v>
@@ -7431,22 +7449,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C29" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E29" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F29" t="s">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -7454,22 +7472,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C30" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D30" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F30" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G30" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -7477,22 +7495,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E31" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F31" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G31" t="s">
-        <v>229</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -7500,22 +7518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D32" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F32" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G32" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -7523,22 +7541,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C33" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D33" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E33" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F33" t="s">
-        <v>244</v>
+        <v>741</v>
       </c>
       <c r="G33" t="s">
-        <v>271</v>
+        <v>771</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -7546,16 +7564,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C34" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E34" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F34" t="s">
         <v>117</v>
@@ -7569,22 +7587,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D35" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F35" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="G35" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -7592,22 +7610,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E36" t="s">
-        <v>714</v>
+        <v>581</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>743</v>
       </c>
       <c r="G36" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -7615,22 +7633,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C37" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>713</v>
       </c>
       <c r="F37" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="G37" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -7638,22 +7656,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C38" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D38" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
       <c r="E38" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F38" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G38" t="s">
-        <v>771</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -7661,22 +7679,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C39" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D39" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>715</v>
       </c>
       <c r="F39" t="s">
-        <v>727</v>
+        <v>256</v>
       </c>
       <c r="G39" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -7717,22 +7735,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="E2" t="s">
-        <v>779</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7740,22 +7758,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="E3" t="s">
-        <v>403</v>
+        <v>782</v>
       </c>
       <c r="F3" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="G3" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7763,22 +7781,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D4" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="E4" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="F4" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="G4" t="s">
-        <v>747</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7819,22 +7837,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="E2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="F2" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="G2" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7842,22 +7860,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C3" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="E3" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="F3" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="G3" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7865,16 +7883,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C4" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D4" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="E4" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="F4" t="s">
         <v>117</v>
@@ -7888,22 +7906,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C5" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D5" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="E5" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="F5" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>815</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7911,22 +7929,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C6" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D6" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="E6" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="F6" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="G6" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7934,22 +7952,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C7" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D7" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="E7" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="F7" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="G7" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
